--- a/01_dataPreperation/outputs/survey_t12.xlsx
+++ b/01_dataPreperation/outputs/survey_t12.xlsx
@@ -9430,7 +9430,7 @@
         <v>0.7495069033530573</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.7738830137127807</v>
+        <v>0.7738830137127808</v>
       </c>
       <c r="AE2" t="n">
         <v>2.956043956043956</v>
@@ -9610,7 +9610,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.6429986665473396</v>
+        <v>0.6429986665473402</v>
       </c>
       <c r="CM2" t="n">
         <v>3.272727272727273</v>
@@ -9943,7 +9943,7 @@
         <v>0.29464285714285715</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.4734518633430836</v>
+        <v>0.4734518633430835</v>
       </c>
       <c r="CM3" t="n">
         <v>3.1666666666666665</v>
@@ -10098,7 +10098,7 @@
         <v>0.9330357142857143</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.737354162976623</v>
+        <v>0.7373541629766232</v>
       </c>
       <c r="AE4" t="n">
         <v>1.9444444444444444</v>
@@ -10278,7 +10278,7 @@
         <v>0.8446280991735537</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.7177561219980328</v>
+        <v>0.7177561219980326</v>
       </c>
       <c r="CM4" t="n">
         <v>1.893939393939394</v>
@@ -10431,7 +10431,7 @@
         <v>0.7469135802469136</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.6465352696904234</v>
+        <v>0.6465352696904231</v>
       </c>
       <c r="AE5" t="n">
         <v>1.8444444444444446</v>
@@ -10605,7 +10605,7 @@
         <v>0.3401360544217687</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.43845864043511035</v>
+        <v>0.43845864043511024</v>
       </c>
       <c r="CM5" t="n">
         <v>1.6428571428571428</v>
@@ -10760,7 +10760,7 @@
         <v>0.6607142857142857</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.7004157353800603</v>
+        <v>0.7004157353800606</v>
       </c>
       <c r="AE6" t="n">
         <v>2.388888888888889</v>
@@ -10940,7 +10940,7 @@
         <v>0.6198347107438017</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.7388405910295079</v>
+        <v>0.7388405910295083</v>
       </c>
       <c r="CM6" t="n">
         <v>2.590909090909091</v>
@@ -11095,7 +11095,7 @@
         <v>0.9115646258503401</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.7198212686350159</v>
+        <v>0.719821268635016</v>
       </c>
       <c r="AE7" t="n">
         <v>1.9285714285714286</v>
@@ -11275,7 +11275,7 @@
         <v>0.4421768707482993</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.5118005736815082</v>
+        <v>0.5118005736815087</v>
       </c>
       <c r="CM7" t="n">
         <v>2.107142857142857</v>
@@ -11428,7 +11428,7 @@
         <v>0.609375</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.6289448767275843</v>
+        <v>0.6289448767275844</v>
       </c>
       <c r="AE8" t="n">
         <v>2.0833333333333335</v>
@@ -11608,7 +11608,7 @@
         <v>0.6</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.7067138490579281</v>
+        <v>0.7067138490579277</v>
       </c>
       <c r="CM8" t="n">
         <v>3.090909090909091</v>
@@ -11763,7 +11763,7 @@
         <v>0.46258503401360546</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.5782730219417319</v>
+        <v>0.5782730219417322</v>
       </c>
       <c r="AE9" t="n">
         <v>1.8571428571428572</v>
@@ -11943,7 +11943,7 @@
         <v>0.20679012345679013</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.618568284310903</v>
+        <v>0.6185682843109027</v>
       </c>
       <c r="CM9" t="n">
         <v>2.2888888888888888</v>
@@ -12278,7 +12278,7 @@
         <v>0.11639030612244898</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.37071235198839564</v>
+        <v>0.3707123519883954</v>
       </c>
       <c r="CM10" t="n">
         <v>1.5555555555555556</v>
@@ -12431,7 +12431,7 @@
         <v>0.1623703703703704</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.46473312687099216</v>
+        <v>0.4647331268709923</v>
       </c>
       <c r="AE11" t="n">
         <v>2.018181818181818</v>
@@ -12611,7 +12611,7 @@
         <v>0.646885521885522</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.6349820338984906</v>
+        <v>0.6349820338984911</v>
       </c>
       <c r="CM11" t="n">
         <v>1.6538461538461537</v>
@@ -12766,7 +12766,7 @@
         <v>0.18140589569161</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.4563960531972853</v>
+        <v>0.4563960531972852</v>
       </c>
       <c r="AE12" t="n">
         <v>1.8571428571428572</v>
@@ -12946,7 +12946,7 @@
         <v>0.6477272727272727</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.672034997462161</v>
+        <v>0.6720349974621604</v>
       </c>
       <c r="CM12" t="n">
         <v>2.923076923076923</v>
@@ -13101,7 +13101,7 @@
         <v>1.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.7387961250362586</v>
+        <v>0.7387961250362588</v>
       </c>
       <c r="AE13" t="n">
         <v>1.7777777777777777</v>
@@ -13281,7 +13281,7 @@
         <v>1.0</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.7499999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="CM13" t="n">
         <v>1.8</v>
@@ -13436,7 +13436,7 @@
         <v>0.6696428571428571</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.639383773032782</v>
+        <v>0.6393837730327819</v>
       </c>
       <c r="AE14" t="n">
         <v>2.3333333333333335</v>
@@ -13616,7 +13616,7 @@
         <v>0.7991071428571429</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.7111671015209851</v>
+        <v>0.7111671015209852</v>
       </c>
       <c r="CM14" t="n">
         <v>2.2777777777777777</v>
@@ -13771,7 +13771,7 @@
         <v>0.6022222222222222</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.6135732683899885</v>
+        <v>0.6135732683899886</v>
       </c>
       <c r="AE15" t="n">
         <v>2.4727272727272727</v>
@@ -14106,7 +14106,7 @@
         <v>0.5419501133786848</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.5331605624251811</v>
+        <v>0.5331605624251816</v>
       </c>
       <c r="AE16" t="n">
         <v>1.8214285714285714</v>
@@ -14286,7 +14286,7 @@
         <v>0.6584595959595959</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.667064351368948</v>
+        <v>0.6670643513689477</v>
       </c>
       <c r="CM16" t="n">
         <v>2.5641025641025643</v>
@@ -14439,7 +14439,7 @@
         <v>0.9115646258503401</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.719821268635016</v>
+        <v>0.7198212686350156</v>
       </c>
       <c r="AE17" t="n">
         <v>1.9285714285714286</v>
@@ -14619,7 +14619,7 @@
         <v>0.2970521541950113</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.42364831431334576</v>
+        <v>0.4236483143133459</v>
       </c>
       <c r="CM17" t="n">
         <v>1.8214285714285714</v>
@@ -14952,7 +14952,7 @@
         <v>1.0</v>
       </c>
       <c r="CL18" t="n">
-        <v>0.7257081148225685</v>
+        <v>0.7257081148225683</v>
       </c>
       <c r="CM18" t="n">
         <v>1.75</v>
@@ -15107,7 +15107,7 @@
         <v>0.9074074074074074</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.7204627963278939</v>
+        <v>0.720462796327894</v>
       </c>
       <c r="AE19" t="n">
         <v>1.9111111111111112</v>
@@ -15287,7 +15287,7 @@
         <v>1.0</v>
       </c>
       <c r="CL19" t="n">
-        <v>0.7387961250362588</v>
+        <v>0.7387961250362586</v>
       </c>
       <c r="CM19" t="n">
         <v>1.7777777777777777</v>
@@ -15442,7 +15442,7 @@
         <v>0.33482142857142855</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.4947578106599355</v>
+        <v>0.49475781065993524</v>
       </c>
       <c r="AE20" t="n">
         <v>1.5</v>
@@ -15622,7 +15622,7 @@
         <v>0.7008928571428571</v>
       </c>
       <c r="CL20" t="n">
-        <v>0.6120329044353318</v>
+        <v>0.6120329044353319</v>
       </c>
       <c r="CM20" t="n">
         <v>1.6944444444444444</v>
@@ -15777,7 +15777,7 @@
         <v>0.4288888888888889</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.5929519658691816</v>
+        <v>0.5929519658691814</v>
       </c>
       <c r="AE21" t="n">
         <v>2.4909090909090907</v>
@@ -15957,7 +15957,7 @@
         <v>0.5782312925170068</v>
       </c>
       <c r="CL21" t="n">
-        <v>0.6181732968593424</v>
+        <v>0.6181732968593425</v>
       </c>
       <c r="CM21" t="n">
         <v>2.25</v>
@@ -16112,7 +16112,7 @@
         <v>0.782312925170068</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.6800254526681511</v>
+        <v>0.6800254526681512</v>
       </c>
       <c r="AE22" t="n">
         <v>2.0357142857142856</v>
@@ -16292,7 +16292,7 @@
         <v>0.5578231292517006</v>
       </c>
       <c r="CL22" t="n">
-        <v>0.6096352672601818</v>
+        <v>0.6096352672601822</v>
       </c>
       <c r="CM22" t="n">
         <v>2.357142857142857</v>
@@ -16447,7 +16447,7 @@
         <v>0.22427983539094648</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.5556009475235815</v>
+        <v>0.5556009475235814</v>
       </c>
       <c r="AE23" t="n">
         <v>1.8666666666666667</v>
@@ -16627,7 +16627,7 @@
         <v>0.6203703703703703</v>
       </c>
       <c r="CL23" t="n">
-        <v>0.670020302694219</v>
+        <v>0.6700203026942195</v>
       </c>
       <c r="CM23" t="n">
         <v>2.2</v>
@@ -16782,7 +16782,7 @@
         <v>0.8147321428571429</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.6842639918394535</v>
+        <v>0.6842639918394537</v>
       </c>
       <c r="AE24" t="n">
         <v>2.0555555555555554</v>
@@ -17117,7 +17117,7 @@
         <v>0.8660714285714286</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.7290544111098354</v>
+        <v>0.7290544111098353</v>
       </c>
       <c r="AE25" t="n">
         <v>2.111111111111111</v>
@@ -17297,7 +17297,7 @@
         <v>0.7346938775510204</v>
       </c>
       <c r="CL25" t="n">
-        <v>0.6645496732106427</v>
+        <v>0.664549673210643</v>
       </c>
       <c r="CM25" t="n">
         <v>2.0</v>
@@ -17452,7 +17452,7 @@
         <v>0.453061224489796</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.7326285560052398</v>
+        <v>0.7326285560052395</v>
       </c>
       <c r="AE26" t="n">
         <v>2.8744588744588744</v>
@@ -17632,7 +17632,7 @@
         <v>0.40149136577708006</v>
       </c>
       <c r="CL26" t="n">
-        <v>0.6789946208109032</v>
+        <v>0.678994620810903</v>
       </c>
       <c r="CM26" t="n">
         <v>4.057142857142857</v>
@@ -17787,7 +17787,7 @@
         <v>0.8660714285714286</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.7290544111098354</v>
+        <v>0.7290544111098353</v>
       </c>
       <c r="AE27" t="n">
         <v>2.111111111111111</v>
@@ -17967,7 +17967,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="CL27" t="n">
-        <v>0.7142857142857141</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="CM27" t="n">
         <v>1.75</v>
@@ -18122,7 +18122,7 @@
         <v>0.7053571428571429</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.6500728938881174</v>
+        <v>0.6500728938881176</v>
       </c>
       <c r="AE28" t="n">
         <v>2.111111111111111</v>
@@ -18302,7 +18302,7 @@
         <v>0.5866666666666667</v>
       </c>
       <c r="CL28" t="n">
-        <v>0.6017925291736842</v>
+        <v>0.6017925291736845</v>
       </c>
       <c r="CM28" t="n">
         <v>2.8</v>
@@ -18457,7 +18457,7 @@
         <v>0.7008928571428571</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.6587562289118615</v>
+        <v>0.6587562289118619</v>
       </c>
       <c r="AE29" t="n">
         <v>2.388888888888889</v>
@@ -18792,7 +18792,7 @@
         <v>0.6852678571428571</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.6039219772889995</v>
+        <v>0.6039219772889997</v>
       </c>
       <c r="AE30" t="n">
         <v>1.6111111111111112</v>
@@ -18972,7 +18972,7 @@
         <v>0.5892857142857143</v>
       </c>
       <c r="CL30" t="n">
-        <v>0.558781489044603</v>
+        <v>0.5587814890446037</v>
       </c>
       <c r="CM30" t="n">
         <v>1.5833333333333333</v>
@@ -19127,7 +19127,7 @@
         <v>0.595679012345679</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.653685529929022</v>
+        <v>0.6536855299290223</v>
       </c>
       <c r="AE31" t="n">
         <v>2.488888888888889</v>
@@ -19307,7 +19307,7 @@
         <v>1.0</v>
       </c>
       <c r="CL31" t="n">
-        <v>0.7387961250362587</v>
+        <v>0.7387961250362588</v>
       </c>
       <c r="CM31" t="n">
         <v>1.7777777777777777</v>
@@ -19642,7 +19642,7 @@
         <v>0.7278911564625851</v>
       </c>
       <c r="CL32" t="n">
-        <v>0.6542393398449936</v>
+        <v>0.6542393398449939</v>
       </c>
       <c r="CM32" t="n">
         <v>2.0357142857142856</v>
@@ -19977,7 +19977,7 @@
         <v>0.36941964285714285</v>
       </c>
       <c r="CL33" t="n">
-        <v>0.4623346530946213</v>
+        <v>0.4623346530946212</v>
       </c>
       <c r="CM33" t="n">
         <v>1.4722222222222223</v>
@@ -20312,7 +20312,7 @@
         <v>0.5401785714285714</v>
       </c>
       <c r="CL34" t="n">
-        <v>0.559565565539262</v>
+        <v>0.5595655655392623</v>
       </c>
       <c r="CM34" t="n">
         <v>2.138888888888889</v>
@@ -20461,7 +20461,7 @@
         <v>0.5216049382716049</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.6915051517722917</v>
+        <v>0.6915051517722915</v>
       </c>
       <c r="AE35" t="n">
         <v>2.577777777777778</v>
@@ -20641,7 +20641,7 @@
         <v>0.5</v>
       </c>
       <c r="CL35" t="n">
-        <v>0.6100597184011247</v>
+        <v>0.610059718401124</v>
       </c>
       <c r="CM35" t="n">
         <v>2.888888888888889</v>
@@ -20976,7 +20976,7 @@
         <v>1.0</v>
       </c>
       <c r="CL36" t="n">
-        <v>0.725708114822568</v>
+        <v>0.7257081148225683</v>
       </c>
       <c r="CM36" t="n">
         <v>1.75</v>
@@ -21131,7 +21131,7 @@
         <v>0.7008928571428571</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.6587562289118617</v>
+        <v>0.6587562289118616</v>
       </c>
       <c r="AE37" t="n">
         <v>2.388888888888889</v>
@@ -21311,7 +21311,7 @@
         <v>1.0</v>
       </c>
       <c r="CL37" t="n">
-        <v>0.7500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="CM37" t="n">
         <v>1.8</v>
@@ -21466,7 +21466,7 @@
         <v>0.6122448979591837</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.5657414540893351</v>
+        <v>0.5657414540893354</v>
       </c>
       <c r="AE38" t="n">
         <v>2.0714285714285716</v>
@@ -21646,7 +21646,7 @@
         <v>0.5782312925170068</v>
       </c>
       <c r="CL38" t="n">
-        <v>0.6181732968593426</v>
+        <v>0.6181732968593429</v>
       </c>
       <c r="CM38" t="n">
         <v>2.25</v>
@@ -21981,7 +21981,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="CL39" t="n">
-        <v>0.7142857142857145</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="CM39" t="n">
         <v>1.75</v>
@@ -22134,7 +22134,7 @@
         <v>0.6049382716049383</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.6782614334814501</v>
+        <v>0.6782614334814498</v>
       </c>
       <c r="AE40" t="n">
         <v>2.422222222222222</v>
@@ -22314,7 +22314,7 @@
         <v>0.9475308641975309</v>
       </c>
       <c r="CL40" t="n">
-        <v>0.7508583628494184</v>
+        <v>0.7508583628494182</v>
       </c>
       <c r="CM40" t="n">
         <v>1.9555555555555555</v>
@@ -22649,7 +22649,7 @@
         <v>0.3897306397306398</v>
       </c>
       <c r="CL41" t="n">
-        <v>0.5187711789145304</v>
+        <v>0.5187711789145303</v>
       </c>
       <c r="CM41" t="n">
         <v>2.6538461538461537</v>
@@ -22804,7 +22804,7 @@
         <v>0.6265432098765432</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.6645898033750316</v>
+        <v>0.6645898033750314</v>
       </c>
       <c r="AE42" t="n">
         <v>2.7111111111111112</v>
@@ -22984,7 +22984,7 @@
         <v>0.6743801652892562</v>
       </c>
       <c r="CL42" t="n">
-        <v>0.6550510257216823</v>
+        <v>0.6550510257216822</v>
       </c>
       <c r="CM42" t="n">
         <v>2.6363636363636362</v>
@@ -23139,7 +23139,7 @@
         <v>0.41294642857142855</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.4752381954531954</v>
+        <v>0.4752381954531953</v>
       </c>
       <c r="AE43" t="n">
         <v>1.8888888888888888</v>
@@ -23319,7 +23319,7 @@
         <v>0.6049382716049383</v>
       </c>
       <c r="CL43" t="n">
-        <v>0.6095267618718903</v>
+        <v>0.6095267618718908</v>
       </c>
       <c r="CM43" t="n">
         <v>2.2</v>
@@ -23474,7 +23474,7 @@
         <v>0.5895061728395061</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.5004325047816064</v>
+        <v>0.5004325047816065</v>
       </c>
       <c r="AE44" t="n">
         <v>2.533333333333333</v>
@@ -23654,7 +23654,7 @@
         <v>0.5178571428571429</v>
       </c>
       <c r="CL44" t="n">
-        <v>0.6741693862984494</v>
+        <v>0.6741693862984492</v>
       </c>
       <c r="CM44" t="n">
         <v>2.5277777777777777</v>
@@ -23989,7 +23989,7 @@
         <v>0.8350231998625194</v>
       </c>
       <c r="CL45" t="n">
-        <v>0.8139954222591257</v>
+        <v>0.8139954222591256</v>
       </c>
       <c r="CM45" t="n">
         <v>3.0471014492753623</v>
@@ -24144,7 +24144,7 @@
         <v>0.3734567901234568</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.6013066276891703</v>
+        <v>0.6013066276891711</v>
       </c>
       <c r="AE46" t="n">
         <v>2.6444444444444444</v>
@@ -24324,7 +24324,7 @@
         <v>0.6122448979591837</v>
       </c>
       <c r="CL46" t="n">
-        <v>0.5328311743729137</v>
+        <v>0.5328311743729136</v>
       </c>
       <c r="CM46" t="n">
         <v>1.9285714285714286</v>
@@ -24479,7 +24479,7 @@
         <v>0.27891156462585037</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.39259946058508755</v>
+        <v>0.3925994605850878</v>
       </c>
       <c r="AE47" t="n">
         <v>1.3928571428571428</v>
@@ -24659,7 +24659,7 @@
         <v>0.14739229024943315</v>
       </c>
       <c r="CL47" t="n">
-        <v>0.2749683875138005</v>
+        <v>0.2749683875138003</v>
       </c>
       <c r="CM47" t="n">
         <v>1.4642857142857142</v>
@@ -24814,7 +24814,7 @@
         <v>0.6066115702479339</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.5873779021459796</v>
+        <v>0.5873779021459798</v>
       </c>
       <c r="AE48" t="n">
         <v>2.712121212121212</v>
@@ -24994,7 +24994,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="CL48" t="n">
-        <v>0.595491502812526</v>
+        <v>0.5954915028125266</v>
       </c>
       <c r="CM48" t="n">
         <v>2.6</v>
@@ -25149,7 +25149,7 @@
         <v>0.6760330578512397</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.6845546212724465</v>
+        <v>0.6845546212724467</v>
       </c>
       <c r="AE49" t="n">
         <v>2.803030303030303</v>
@@ -25329,7 +25329,7 @@
         <v>0.7901234567901234</v>
       </c>
       <c r="CL49" t="n">
-        <v>0.7196699141100892</v>
+        <v>0.7196699141100894</v>
       </c>
       <c r="CM49" t="n">
         <v>2.422222222222222</v>
@@ -25484,7 +25484,7 @@
         <v>0.5079365079365079</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.4486619938990459</v>
+        <v>0.4486619938990457</v>
       </c>
       <c r="AE50" t="n">
         <v>2.0</v>
@@ -25819,7 +25819,7 @@
         <v>0.6311111111111111</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.6799480286299384</v>
+        <v>0.6799480286299385</v>
       </c>
       <c r="AE51" t="n">
         <v>2.8363636363636364</v>
@@ -25999,7 +25999,7 @@
         <v>0.8777777777777778</v>
       </c>
       <c r="CL51" t="n">
-        <v>0.7693279676375928</v>
+        <v>0.7693279676375926</v>
       </c>
       <c r="CM51" t="n">
         <v>2.2181818181818183</v>
@@ -26154,7 +26154,7 @@
         <v>0.8348214285714286</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.715846528022154</v>
+        <v>0.7158465280221536</v>
       </c>
       <c r="AE52" t="n">
         <v>2.0555555555555554</v>
@@ -26334,7 +26334,7 @@
         <v>0.6866666666666666</v>
       </c>
       <c r="CL52" t="n">
-        <v>0.6417856339434895</v>
+        <v>0.6417856339434899</v>
       </c>
       <c r="CM52" t="n">
         <v>1.7818181818181817</v>
@@ -26489,7 +26489,7 @@
         <v>1.0</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AE53" t="n">
         <v>1.8</v>
@@ -26667,7 +26667,7 @@
         <v>0.27455357142857145</v>
       </c>
       <c r="CL53" t="n">
-        <v>0.4490009790690984</v>
+        <v>0.44900097906909814</v>
       </c>
       <c r="CM53" t="n">
         <v>1.9166666666666667</v>
@@ -26818,7 +26818,7 @@
         <v>1.0</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.7387961250362586</v>
+        <v>0.7387961250362588</v>
       </c>
       <c r="AE54" t="n">
         <v>1.7777777777777777</v>
@@ -26998,7 +26998,7 @@
         <v>1.0</v>
       </c>
       <c r="CL54" t="n">
-        <v>0.7387961250362587</v>
+        <v>0.7387961250362588</v>
       </c>
       <c r="CM54" t="n">
         <v>1.7777777777777777</v>
@@ -27153,7 +27153,7 @@
         <v>0.6802721088435374</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.5503808935463234</v>
+        <v>0.5503808935463236</v>
       </c>
       <c r="AE55" t="n">
         <v>1.5714285714285714</v>
@@ -27333,7 +27333,7 @@
         <v>0.5578231292517006</v>
       </c>
       <c r="CL55" t="n">
-        <v>0.5747704533260998</v>
+        <v>0.5747704533260994</v>
       </c>
       <c r="CM55" t="n">
         <v>2.0714285714285716</v>
@@ -27488,7 +27488,7 @@
         <v>0.2962962962962963</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.46301288209502833</v>
+        <v>0.46301288209502856</v>
       </c>
       <c r="AE56" t="n">
         <v>2.422222222222222</v>
@@ -27668,7 +27668,7 @@
         <v>0.13378684807256233</v>
       </c>
       <c r="CL56" t="n">
-        <v>0.3201759713937107</v>
+        <v>0.32017597139371085</v>
       </c>
       <c r="CM56" t="n">
         <v>1.6785714285714286</v>
@@ -27823,7 +27823,7 @@
         <v>0.17814814814814814</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.389138293388893</v>
+        <v>0.3891382933888932</v>
       </c>
       <c r="AE57" t="n">
         <v>1.509090909090909</v>
@@ -28003,7 +28003,7 @@
         <v>0.16964285714285712</v>
       </c>
       <c r="CL57" t="n">
-        <v>0.37150590144153256</v>
+        <v>0.3715059014415318</v>
       </c>
       <c r="CM57" t="n">
         <v>1.6111111111111112</v>
@@ -28158,7 +28158,7 @@
         <v>0.7755102040816326</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.678399933876042</v>
+        <v>0.6783999338760419</v>
       </c>
       <c r="AE58" t="n">
         <v>2.0714285714285716</v>
@@ -28338,7 +28338,7 @@
         <v>0.4419642857142857</v>
       </c>
       <c r="CL58" t="n">
-        <v>0.40623926076304784</v>
+        <v>0.4062392607630486</v>
       </c>
       <c r="CM58" t="n">
         <v>2.25</v>
@@ -28673,7 +28673,7 @@
         <v>0.8526785714285714</v>
       </c>
       <c r="CL59" t="n">
-        <v>0.6596347721913242</v>
+        <v>0.6596347721913244</v>
       </c>
       <c r="CM59" t="n">
         <v>1.6944444444444444</v>
@@ -29163,7 +29163,7 @@
         <v>0.9197530864197531</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.7322293594508327</v>
+        <v>0.7322293594508328</v>
       </c>
       <c r="AE61" t="n">
         <v>1.9333333333333333</v>
@@ -29343,7 +29343,7 @@
         <v>0.8973214285714286</v>
       </c>
       <c r="CL61" t="n">
-        <v>0.7136955121033598</v>
+        <v>0.7136955121033601</v>
       </c>
       <c r="CM61" t="n">
         <v>1.9166666666666667</v>
@@ -29496,7 +29496,7 @@
         <v>0.796875</v>
       </c>
       <c r="AD62" t="n">
-        <v>0.6410642117442344</v>
+        <v>0.6410642117442341</v>
       </c>
       <c r="AE62" t="n">
         <v>1.6666666666666667</v>
@@ -29676,7 +29676,7 @@
         <v>0.6919642857142857</v>
       </c>
       <c r="CL62" t="n">
-        <v>0.653827741450395</v>
+        <v>0.6538277414503952</v>
       </c>
       <c r="CM62" t="n">
         <v>1.9444444444444444</v>
@@ -30011,7 +30011,7 @@
         <v>0.6607142857142857</v>
       </c>
       <c r="CL63" t="n">
-        <v>0.7004157353800602</v>
+        <v>0.7004157353800604</v>
       </c>
       <c r="CM63" t="n">
         <v>4.833333333333333</v>
@@ -30166,7 +30166,7 @@
         <v>0.45035321821036106</v>
       </c>
       <c r="AD64" t="n">
-        <v>0.637109088403557</v>
+        <v>0.6371090884035565</v>
       </c>
       <c r="AE64" t="n">
         <v>2.142857142857143</v>
@@ -30346,7 +30346,7 @@
         <v>0.272108843537415</v>
       </c>
       <c r="CL64" t="n">
-        <v>0.40402437234597305</v>
+        <v>0.40402437234597244</v>
       </c>
       <c r="CM64" t="n">
         <v>1.5</v>
@@ -30501,7 +30501,7 @@
         <v>0.0</v>
       </c>
       <c r="AD65" t="n">
-        <v>2.9605947323337506E-16</v>
+        <v>4.440892098500626E-16</v>
       </c>
       <c r="AE65" t="n">
         <v>2.2857142857142856</v>
@@ -30677,7 +30677,7 @@
         <v>1.0</v>
       </c>
       <c r="CL65" t="n">
-        <v>0.7387961250362584</v>
+        <v>0.7387961250362588</v>
       </c>
       <c r="CM65" t="n">
         <v>1.7777777777777777</v>
@@ -30832,7 +30832,7 @@
         <v>0.5</v>
       </c>
       <c r="AD66" t="n">
-        <v>0.6150304417556473</v>
+        <v>0.6150304417556474</v>
       </c>
       <c r="AE66" t="n">
         <v>2.511111111111111</v>
@@ -31012,7 +31012,7 @@
         <v>0.2789115646258503</v>
       </c>
       <c r="CL66" t="n">
-        <v>0.5161009030832892</v>
+        <v>0.5161009030832894</v>
       </c>
       <c r="CM66" t="n">
         <v>1.9642857142857142</v>
@@ -31165,7 +31165,7 @@
         <v>0.5758928571428571</v>
       </c>
       <c r="AD67" t="n">
-        <v>0.6089951166224771</v>
+        <v>0.6089951166224772</v>
       </c>
       <c r="AE67" t="n">
         <v>2.4166666666666665</v>
@@ -31500,7 +31500,7 @@
         <v>0.7247639796659404</v>
       </c>
       <c r="AD68" t="n">
-        <v>0.7526996330517762</v>
+        <v>0.7526996330517761</v>
       </c>
       <c r="AE68" t="n">
         <v>3.216374269005848</v>
@@ -31680,7 +31680,7 @@
         <v>0.5758928571428571</v>
       </c>
       <c r="CL68" t="n">
-        <v>0.6000749631598412</v>
+        <v>0.600074963159841</v>
       </c>
       <c r="CM68" t="n">
         <v>2.6666666666666665</v>
@@ -31833,7 +31833,7 @@
         <v>0.7410714285714286</v>
       </c>
       <c r="AD69" t="n">
-        <v>0.717824273519294</v>
+        <v>0.7178242735192939</v>
       </c>
       <c r="AE69" t="n">
         <v>2.388888888888889</v>
@@ -33010,7 +33010,7 @@
         <v>1.0</v>
       </c>
       <c r="CL72" t="n">
-        <v>0.7387961250362587</v>
+        <v>0.7387961250362585</v>
       </c>
       <c r="CM72" t="n">
         <v>1.7777777777777777</v>
@@ -33345,7 +33345,7 @@
         <v>0.054687499999999965</v>
       </c>
       <c r="CL73" t="n">
-        <v>0.35664374775136753</v>
+        <v>0.3566437477513674</v>
       </c>
       <c r="CM73" t="n">
         <v>1.3888888888888888</v>
@@ -33500,7 +33500,7 @@
         <v>0.28571428571428564</v>
       </c>
       <c r="AD74" t="n">
-        <v>0.4546724859841668</v>
+        <v>0.4546724859841672</v>
       </c>
       <c r="AE74" t="n">
         <v>1.9722222222222223</v>
@@ -33680,7 +33680,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="CL74" t="n">
-        <v>0.7197255855119373</v>
+        <v>0.7197255855119375</v>
       </c>
       <c r="CM74" t="n">
         <v>2.8727272727272726</v>
@@ -33833,7 +33833,7 @@
         <v>0.8102678571428571</v>
       </c>
       <c r="AD75" t="n">
-        <v>0.6651223294223831</v>
+        <v>0.665122329422383</v>
       </c>
       <c r="AE75" t="n">
         <v>1.8333333333333333</v>
@@ -34013,7 +34013,7 @@
         <v>0.8415178571428571</v>
       </c>
       <c r="CL75" t="n">
-        <v>0.6846946649828619</v>
+        <v>0.6846946649828618</v>
       </c>
       <c r="CM75" t="n">
         <v>1.8888888888888888</v>
@@ -34168,7 +34168,7 @@
         <v>0.5467032967032966</v>
       </c>
       <c r="AD76" t="n">
-        <v>0.6708950304094932</v>
+        <v>0.6708950304094936</v>
       </c>
       <c r="AE76" t="n">
         <v>3.295238095238095</v>
@@ -34838,7 +34838,7 @@
         <v>0.7603305785123967</v>
       </c>
       <c r="AD78" t="n">
-        <v>0.721282290226661</v>
+        <v>0.7212822902266606</v>
       </c>
       <c r="AE78" t="n">
         <v>2.393939393939394</v>
@@ -35018,7 +35018,7 @@
         <v>0.7930158730158731</v>
       </c>
       <c r="CL78" t="n">
-        <v>0.7718796454850066</v>
+        <v>0.7718796454850069</v>
       </c>
       <c r="CM78" t="n">
         <v>2.8583333333333334</v>
@@ -35171,7 +35171,7 @@
         <v>0.6512345679012346</v>
       </c>
       <c r="AD79" t="n">
-        <v>0.6669119379883166</v>
+        <v>0.6669119379883163</v>
       </c>
       <c r="AE79" t="n">
         <v>2.088888888888889</v>
@@ -35351,7 +35351,7 @@
         <v>0.5193602693602694</v>
       </c>
       <c r="CL79" t="n">
-        <v>0.601977849304689</v>
+        <v>0.6019778493046893</v>
       </c>
       <c r="CM79" t="n">
         <v>2.6153846153846154</v>
@@ -35686,7 +35686,7 @@
         <v>0.8660714285714286</v>
       </c>
       <c r="CL80" t="n">
-        <v>0.7290544111098353</v>
+        <v>0.7290544111098356</v>
       </c>
       <c r="CM80" t="n">
         <v>2.111111111111111</v>
@@ -35841,7 +35841,7 @@
         <v>0.48148148148148145</v>
       </c>
       <c r="AD81" t="n">
-        <v>0.6560189546336496</v>
+        <v>0.6560189546336498</v>
       </c>
       <c r="AE81" t="n">
         <v>2.311111111111111</v>
@@ -36021,7 +36021,7 @@
         <v>0.7631746031746032</v>
       </c>
       <c r="CL81" t="n">
-        <v>0.7097762554824038</v>
+        <v>0.709776255482404</v>
       </c>
       <c r="CM81" t="n">
         <v>2.85</v>
@@ -36176,7 +36176,7 @@
         <v>0.7933333333333333</v>
       </c>
       <c r="AD82" t="n">
-        <v>0.7525706526801337</v>
+        <v>0.752570652680134</v>
       </c>
       <c r="AE82" t="n">
         <v>2.5090909090909093</v>
@@ -36356,7 +36356,7 @@
         <v>0.48660714285714285</v>
       </c>
       <c r="CL82" t="n">
-        <v>0.5648596383448894</v>
+        <v>0.5648596383448893</v>
       </c>
       <c r="CM82" t="n">
         <v>2.7222222222222223</v>
@@ -36511,7 +36511,7 @@
         <v>0.40816326530612246</v>
       </c>
       <c r="AD83" t="n">
-        <v>0.4504985953414195</v>
+        <v>0.45049859534141995</v>
       </c>
       <c r="AE83" t="n">
         <v>2.2857142857142856</v>
@@ -36691,7 +36691,7 @@
         <v>0.32142857142857145</v>
       </c>
       <c r="CL83" t="n">
-        <v>0.285714285714286</v>
+        <v>0.2857142857142862</v>
       </c>
       <c r="CM83" t="n">
         <v>3.0</v>
@@ -36838,7 +36838,7 @@
         <v>0.5111607142857143</v>
       </c>
       <c r="AD84" t="n">
-        <v>0.6024880511630634</v>
+        <v>0.6024880511630629</v>
       </c>
       <c r="AE84" t="n">
         <v>2.1944444444444446</v>
@@ -37018,7 +37018,7 @@
         <v>0.5401785714285714</v>
       </c>
       <c r="CL84" t="n">
-        <v>0.6459273429006401</v>
+        <v>0.6459273429006404</v>
       </c>
       <c r="CM84" t="n">
         <v>2.388888888888889</v>
@@ -37173,7 +37173,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="AD85" t="n">
-        <v>0.7311064553717902</v>
+        <v>0.7311064553717901</v>
       </c>
       <c r="AE85" t="n">
         <v>1.7777777777777777</v>
@@ -37353,7 +37353,7 @@
         <v>0.7692307692307693</v>
       </c>
       <c r="CL85" t="n">
-        <v>0.7584883703269371</v>
+        <v>0.758488370326937</v>
       </c>
       <c r="CM85" t="n">
         <v>2.3516483516483517</v>
@@ -37508,7 +37508,7 @@
         <v>0.7410714285714286</v>
       </c>
       <c r="AD86" t="n">
-        <v>0.717824273519294</v>
+        <v>0.7178242735192938</v>
       </c>
       <c r="AE86" t="n">
         <v>2.388888888888889</v>
@@ -37688,7 +37688,7 @@
         <v>0.7678571428571429</v>
       </c>
       <c r="CL86" t="n">
-        <v>0.6940481772627649</v>
+        <v>0.6940481772627652</v>
       </c>
       <c r="CM86" t="n">
         <v>2.2222222222222223</v>
@@ -37843,7 +37843,7 @@
         <v>0.71875</v>
       </c>
       <c r="AD87" t="n">
-        <v>0.6341776706179161</v>
+        <v>0.6341776706179163</v>
       </c>
       <c r="AE87" t="n">
         <v>1.7777777777777777</v>
@@ -38176,7 +38176,7 @@
         <v>0.09375</v>
       </c>
       <c r="AD88" t="n">
-        <v>0.4296083724847318</v>
+        <v>0.42960837248473194</v>
       </c>
       <c r="AE88" t="n">
         <v>1.8333333333333333</v>
@@ -38511,7 +38511,7 @@
         <v>0.9330357142857143</v>
       </c>
       <c r="AD89" t="n">
-        <v>0.737354162976623</v>
+        <v>0.7373541629766232</v>
       </c>
       <c r="AE89" t="n">
         <v>1.9444444444444444</v>
@@ -38691,7 +38691,7 @@
         <v>0.7414965986394558</v>
       </c>
       <c r="CL89" t="n">
-        <v>0.632947705133731</v>
+        <v>0.6329477051337307</v>
       </c>
       <c r="CM89" t="n">
         <v>1.8214285714285714</v>
@@ -38844,7 +38844,7 @@
         <v>0.8179012345679012</v>
       </c>
       <c r="AD90" t="n">
-        <v>0.7270984765006412</v>
+        <v>0.7270984765006416</v>
       </c>
       <c r="AE90" t="n">
         <v>2.2222222222222223</v>
@@ -39024,7 +39024,7 @@
         <v>0.59375</v>
       </c>
       <c r="CL90" t="n">
-        <v>0.6413952112217033</v>
+        <v>0.6413952112217032</v>
       </c>
       <c r="CM90" t="n">
         <v>2.5555555555555554</v>
@@ -39179,7 +39179,7 @@
         <v>0.6694214876033058</v>
       </c>
       <c r="AD91" t="n">
-        <v>0.6107840439838735</v>
+        <v>0.6107840439838736</v>
       </c>
       <c r="AE91" t="n">
         <v>2.1363636363636362</v>
@@ -39359,7 +39359,7 @@
         <v>0.6859504132231405</v>
       </c>
       <c r="CL91" t="n">
-        <v>0.6983014460704766</v>
+        <v>0.6983014460704765</v>
       </c>
       <c r="CM91" t="n">
         <v>2.257575757575758</v>
@@ -39514,7 +39514,7 @@
         <v>0.36054421768707484</v>
       </c>
       <c r="AD92" t="n">
-        <v>0.5033990091861766</v>
+        <v>0.503399009186177</v>
       </c>
       <c r="AE92" t="n">
         <v>1.6785714285714286</v>
@@ -39694,7 +39694,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="CL92" t="n">
-        <v>0.6940948406206624</v>
+        <v>0.6940948406206621</v>
       </c>
       <c r="CM92" t="n">
         <v>1.7222222222222223</v>
@@ -39849,7 +39849,7 @@
         <v>0.5669642857142857</v>
       </c>
       <c r="AD93" t="n">
-        <v>0.6848825257634606</v>
+        <v>0.6848825257634603</v>
       </c>
       <c r="AE93" t="n">
         <v>2.7222222222222223</v>
@@ -40180,7 +40180,7 @@
         <v>0.5652892561983471</v>
       </c>
       <c r="AD94" t="n">
-        <v>0.7267985273681556</v>
+        <v>0.7267985273681553</v>
       </c>
       <c r="AE94" t="n">
         <v>2.909090909090909</v>
@@ -40360,7 +40360,7 @@
         <v>0.5758928571428571</v>
       </c>
       <c r="CL94" t="n">
-        <v>0.6000749631598411</v>
+        <v>0.6000749631598412</v>
       </c>
       <c r="CM94" t="n">
         <v>2.6666666666666665</v>
@@ -40513,7 +40513,7 @@
         <v>0.5918367346938775</v>
       </c>
       <c r="AD95" t="n">
-        <v>0.590091979586548</v>
+        <v>0.5900919795865479</v>
       </c>
       <c r="AE95" t="n">
         <v>1.75</v>
@@ -40693,7 +40693,7 @@
         <v>0.09523809523809523</v>
       </c>
       <c r="CL95" t="n">
-        <v>0.5010890414420329</v>
+        <v>0.5010890414420328</v>
       </c>
       <c r="CM95" t="n">
         <v>2.0714285714285716</v>
@@ -40848,7 +40848,7 @@
         <v>0.6377777777777778</v>
       </c>
       <c r="AD96" t="n">
-        <v>0.6848673576356821</v>
+        <v>0.6848673576356819</v>
       </c>
       <c r="AE96" t="n">
         <v>2.381818181818182</v>
@@ -41028,7 +41028,7 @@
         <v>0.6044444444444445</v>
       </c>
       <c r="CL96" t="n">
-        <v>0.5843266853358053</v>
+        <v>0.5843266853358057</v>
       </c>
       <c r="CM96" t="n">
         <v>2.6545454545454548</v>
@@ -41181,7 +41181,7 @@
         <v>1.0</v>
       </c>
       <c r="AD97" t="n">
-        <v>0.7387961250362588</v>
+        <v>0.7387961250362586</v>
       </c>
       <c r="AE97" t="n">
         <v>1.7777777777777777</v>
@@ -41361,7 +41361,7 @@
         <v>1.0</v>
       </c>
       <c r="CL97" t="n">
-        <v>0.7387961250362588</v>
+        <v>0.7387961250362584</v>
       </c>
       <c r="CM97" t="n">
         <v>1.7777777777777777</v>
@@ -41516,7 +41516,7 @@
         <v>0.8231292517006803</v>
       </c>
       <c r="AD98" t="n">
-        <v>0.7026826731463075</v>
+        <v>0.7026826731463074</v>
       </c>
       <c r="AE98" t="n">
         <v>2.107142857142857</v>
@@ -41851,7 +41851,7 @@
         <v>0.6635802469135802</v>
       </c>
       <c r="AD99" t="n">
-        <v>0.6303142850094589</v>
+        <v>0.630314285009459</v>
       </c>
       <c r="AE99" t="n">
         <v>2.4444444444444446</v>
@@ -42031,7 +42031,7 @@
         <v>0.46651785714285715</v>
       </c>
       <c r="CL99" t="n">
-        <v>0.4851252914601623</v>
+        <v>0.4851252914601617</v>
       </c>
       <c r="CM99" t="n">
         <v>2.25</v>
@@ -42186,7 +42186,7 @@
         <v>0.6598639455782312</v>
       </c>
       <c r="AD100" t="n">
-        <v>0.6695606899782192</v>
+        <v>0.6695606899782188</v>
       </c>
       <c r="AE100" t="n">
         <v>2.392857142857143</v>
@@ -42701,7 +42701,7 @@
         <v>0.7678571428571429</v>
       </c>
       <c r="CL101" t="n">
-        <v>0.6940481772627656</v>
+        <v>0.6940481772627651</v>
       </c>
       <c r="CM101" t="n">
         <v>2.2222222222222223</v>
@@ -43191,7 +43191,7 @@
         <v>0.7008928571428571</v>
       </c>
       <c r="AD103" t="n">
-        <v>0.6587562289118611</v>
+        <v>0.6587562289118615</v>
       </c>
       <c r="AE103" t="n">
         <v>2.388888888888889</v>
@@ -43371,7 +43371,7 @@
         <v>0.6977777777777778</v>
       </c>
       <c r="CL103" t="n">
-        <v>0.6036953472000947</v>
+        <v>0.6036953472000948</v>
       </c>
       <c r="CM103" t="n">
         <v>2.4909090909090907</v>
@@ -43526,7 +43526,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="AD104" t="n">
-        <v>0.7142857142857142</v>
+        <v>0.7142857142857141</v>
       </c>
       <c r="AE104" t="n">
         <v>1.75</v>
@@ -43861,7 +43861,7 @@
         <v>0.6026785714285714</v>
       </c>
       <c r="AD105" t="n">
-        <v>0.5910774267046234</v>
+        <v>0.5910774267046233</v>
       </c>
       <c r="AE105" t="n">
         <v>1.75</v>
@@ -44196,7 +44196,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="AD106" t="n">
-        <v>0.6346347768482169</v>
+        <v>0.634634776848217</v>
       </c>
       <c r="AE106" t="n">
         <v>2.1666666666666665</v>
@@ -44711,7 +44711,7 @@
         <v>1.0</v>
       </c>
       <c r="CL107" t="n">
-        <v>0.7387961250362584</v>
+        <v>0.7387961250362585</v>
       </c>
       <c r="CM107" t="n">
         <v>1.7777777777777777</v>
@@ -44866,7 +44866,7 @@
         <v>0.4217687074829932</v>
       </c>
       <c r="AD108" t="n">
-        <v>0.4904732738716275</v>
+        <v>0.49047327387162803</v>
       </c>
       <c r="AE108" t="n">
         <v>1.9285714285714286</v>
@@ -45201,7 +45201,7 @@
         <v>0.6049382716049383</v>
       </c>
       <c r="AD109" t="n">
-        <v>0.6782614334814502</v>
+        <v>0.6782614334814498</v>
       </c>
       <c r="AE109" t="n">
         <v>2.422222222222222</v>
@@ -45381,7 +45381,7 @@
         <v>0.47544642857142855</v>
       </c>
       <c r="CL109" t="n">
-        <v>0.5059133219977022</v>
+        <v>0.505913321997702</v>
       </c>
       <c r="CM109" t="n">
         <v>1.6666666666666667</v>
@@ -45536,7 +45536,7 @@
         <v>1.0</v>
       </c>
       <c r="AD110" t="n">
-        <v>0.7257081148225684</v>
+        <v>0.7257081148225683</v>
       </c>
       <c r="AE110" t="n">
         <v>1.75</v>
@@ -45716,7 +45716,7 @@
         <v>1.0</v>
       </c>
       <c r="CL110" t="n">
-        <v>0.7387961250362586</v>
+        <v>0.7387961250362584</v>
       </c>
       <c r="CM110" t="n">
         <v>1.7777777777777777</v>
@@ -46051,7 +46051,7 @@
         <v>0.7493686868686869</v>
       </c>
       <c r="CL111" t="n">
-        <v>0.7204316321864164</v>
+        <v>0.7204316321864159</v>
       </c>
       <c r="CM111" t="n">
         <v>2.141025641025641</v>
@@ -46206,7 +46206,7 @@
         <v>0.5578231292517006</v>
       </c>
       <c r="AD112" t="n">
-        <v>0.6096352672601814</v>
+        <v>0.6096352672601818</v>
       </c>
       <c r="AE112" t="n">
         <v>2.357142857142857</v>
@@ -46386,7 +46386,7 @@
         <v>0.782312925170068</v>
       </c>
       <c r="CL112" t="n">
-        <v>0.6800254526681511</v>
+        <v>0.680025452668151</v>
       </c>
       <c r="CM112" t="n">
         <v>2.0357142857142856</v>
@@ -46541,7 +46541,7 @@
         <v>0.9197530864197531</v>
       </c>
       <c r="AD113" t="n">
-        <v>0.7322293594508329</v>
+        <v>0.7322293594508326</v>
       </c>
       <c r="AE113" t="n">
         <v>1.9333333333333333</v>
@@ -46721,7 +46721,7 @@
         <v>0.9330357142857143</v>
       </c>
       <c r="CL113" t="n">
-        <v>0.7373541629766232</v>
+        <v>0.7373541629766233</v>
       </c>
       <c r="CM113" t="n">
         <v>1.9444444444444444</v>
@@ -46876,7 +46876,7 @@
         <v>0.8133333333333334</v>
       </c>
       <c r="AD114" t="n">
-        <v>0.7321281685313638</v>
+        <v>0.7321281685313635</v>
       </c>
       <c r="AE114" t="n">
         <v>2.1454545454545455</v>
@@ -47211,7 +47211,7 @@
         <v>0.6802721088435374</v>
       </c>
       <c r="AD115" t="n">
-        <v>0.5845912883606489</v>
+        <v>0.5845912883606482</v>
       </c>
       <c r="AE115" t="n">
         <v>1.5714285714285714</v>
@@ -47391,7 +47391,7 @@
         <v>0.8660714285714286</v>
       </c>
       <c r="CL115" t="n">
-        <v>0.7290544111098353</v>
+        <v>0.729054411109835</v>
       </c>
       <c r="CM115" t="n">
         <v>2.111111111111111</v>
@@ -47544,7 +47544,7 @@
         <v>0.3373275236020334</v>
       </c>
       <c r="AD116" t="n">
-        <v>0.5693171252616183</v>
+        <v>0.5693171252616187</v>
       </c>
       <c r="AE116" t="n">
         <v>3.2339181286549707</v>
@@ -47724,7 +47724,7 @@
         <v>0.5927021696252466</v>
       </c>
       <c r="CL116" t="n">
-        <v>0.7274103658856331</v>
+        <v>0.7274103658856332</v>
       </c>
       <c r="CM116" t="n">
         <v>3.010989010989011</v>
@@ -47879,7 +47879,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="AD117" t="n">
-        <v>0.6039127206098897</v>
+        <v>0.6039127206098894</v>
       </c>
       <c r="AE117" t="n">
         <v>2.5714285714285716</v>
@@ -48059,7 +48059,7 @@
         <v>0.10743801652892569</v>
       </c>
       <c r="CL117" t="n">
-        <v>0.26437278824842564</v>
+        <v>0.26437278824842514</v>
       </c>
       <c r="CM117" t="n">
         <v>2.772727272727273</v>
@@ -48212,7 +48212,7 @@
         <v>0.48444444444444446</v>
       </c>
       <c r="AD118" t="n">
-        <v>0.5936217227285532</v>
+        <v>0.5936217227285535</v>
       </c>
       <c r="AE118" t="n">
         <v>2.8363636363636364</v>
@@ -48392,7 +48392,7 @@
         <v>0.7414965986394558</v>
       </c>
       <c r="CL118" t="n">
-        <v>0.5848735930611823</v>
+        <v>0.584873593061182</v>
       </c>
       <c r="CM118" t="n">
         <v>1.9642857142857142</v>
@@ -48547,7 +48547,7 @@
         <v>0.6696428571428571</v>
       </c>
       <c r="AD119" t="n">
-        <v>0.6393837730327817</v>
+        <v>0.6393837730327819</v>
       </c>
       <c r="AE119" t="n">
         <v>2.3333333333333335</v>
@@ -48727,7 +48727,7 @@
         <v>0.33482142857142855</v>
       </c>
       <c r="CL119" t="n">
-        <v>0.5885145083100951</v>
+        <v>0.5885145083100952</v>
       </c>
       <c r="CM119" t="n">
         <v>2.6666666666666665</v>
@@ -48882,7 +48882,7 @@
         <v>1.0</v>
       </c>
       <c r="AD120" t="n">
-        <v>0.7387961250362584</v>
+        <v>0.7387961250362585</v>
       </c>
       <c r="AE120" t="n">
         <v>1.7777777777777777</v>
@@ -49062,7 +49062,7 @@
         <v>1.0</v>
       </c>
       <c r="CL120" t="n">
-        <v>0.7387961250362584</v>
+        <v>0.7387961250362586</v>
       </c>
       <c r="CM120" t="n">
         <v>1.7777777777777777</v>
@@ -49397,7 +49397,7 @@
         <v>0.5290404040404041</v>
       </c>
       <c r="CL121" t="n">
-        <v>0.6499793286932675</v>
+        <v>0.6499793286932672</v>
       </c>
       <c r="CM121" t="n">
         <v>3.128205128205128</v>
@@ -49552,7 +49552,7 @@
         <v>0.4897959183673469</v>
       </c>
       <c r="AD122" t="n">
-        <v>0.5365187206722237</v>
+        <v>0.5365187206722234</v>
       </c>
       <c r="AE122" t="n">
         <v>1.5714285714285714</v>
@@ -49879,7 +49879,7 @@
         <v>0.7474048442906575</v>
       </c>
       <c r="AD123" t="n">
-        <v>0.775835150657976</v>
+        <v>0.7758351506579759</v>
       </c>
       <c r="AE123" t="n">
         <v>2.6470588235294117</v>
@@ -50059,7 +50059,7 @@
         <v>0.7299107142857143</v>
       </c>
       <c r="CL123" t="n">
-        <v>0.6472695940025811</v>
+        <v>0.6472695940025804</v>
       </c>
       <c r="CM123" t="n">
         <v>1.8611111111111112</v>
@@ -50214,7 +50214,7 @@
         <v>0.7276785714285714</v>
       </c>
       <c r="AD124" t="n">
-        <v>0.6779695366733546</v>
+        <v>0.6779695366733547</v>
       </c>
       <c r="AE124" t="n">
         <v>2.2222222222222223</v>
@@ -50394,7 +50394,7 @@
         <v>0.5170068027210885</v>
       </c>
       <c r="CL124" t="n">
-        <v>0.590241925981218</v>
+        <v>0.5902419259812178</v>
       </c>
       <c r="CM124" t="n">
         <v>1.8571428571428572</v>
@@ -50547,7 +50547,7 @@
         <v>0.7991071428571429</v>
       </c>
       <c r="AD125" t="n">
-        <v>0.711167101520985</v>
+        <v>0.7111671015209848</v>
       </c>
       <c r="AE125" t="n">
         <v>2.2777777777777777</v>
@@ -50882,7 +50882,7 @@
         <v>0.4104938271604938</v>
       </c>
       <c r="AD126" t="n">
-        <v>0.4967942204652589</v>
+        <v>0.4967942204652587</v>
       </c>
       <c r="AE126" t="n">
         <v>1.9333333333333333</v>
@@ -51062,7 +51062,7 @@
         <v>0.7305785123966942</v>
       </c>
       <c r="CL126" t="n">
-        <v>0.753528720516276</v>
+        <v>0.7535287205162757</v>
       </c>
       <c r="CM126" t="n">
         <v>2.6666666666666665</v>
@@ -51215,7 +51215,7 @@
         <v>0.5535714285714286</v>
       </c>
       <c r="AD127" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5714285714285712</v>
       </c>
       <c r="AE127" t="n">
         <v>1.5555555555555556</v>
@@ -51393,7 +51393,7 @@
         <v>0.5535714285714286</v>
       </c>
       <c r="CL127" t="n">
-        <v>0.5714285714285713</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="CM127" t="n">
         <v>1.5555555555555556</v>
@@ -51881,7 +51881,7 @@
         <v>0.19047619047619047</v>
       </c>
       <c r="AD129" t="n">
-        <v>0.47482035812093804</v>
+        <v>0.47482035812093876</v>
       </c>
       <c r="AE129" t="n">
         <v>1.8571428571428572</v>
@@ -52061,7 +52061,7 @@
         <v>0.782312925170068</v>
       </c>
       <c r="CL129" t="n">
-        <v>0.680025452668151</v>
+        <v>0.6800254526681512</v>
       </c>
       <c r="CM129" t="n">
         <v>2.0357142857142856</v>
@@ -52216,7 +52216,7 @@
         <v>0.5088888888888888</v>
       </c>
       <c r="AD130" t="n">
-        <v>0.6002457216955214</v>
+        <v>0.6002457216955213</v>
       </c>
       <c r="AE130" t="n">
         <v>2.2363636363636363</v>
@@ -52396,7 +52396,7 @@
         <v>0.6942800788954635</v>
       </c>
       <c r="CL130" t="n">
-        <v>0.6986966431848939</v>
+        <v>0.6986966431848938</v>
       </c>
       <c r="CM130" t="n">
         <v>2.879120879120879</v>
@@ -52551,7 +52551,7 @@
         <v>1.0</v>
       </c>
       <c r="AD131" t="n">
-        <v>0.7387961250362585</v>
+        <v>0.7387961250362586</v>
       </c>
       <c r="AE131" t="n">
         <v>1.7777777777777777</v>
@@ -52731,7 +52731,7 @@
         <v>1.0</v>
       </c>
       <c r="CL131" t="n">
-        <v>0.7387961250362585</v>
+        <v>0.7387961250362587</v>
       </c>
       <c r="CM131" t="n">
         <v>1.7777777777777777</v>
@@ -52886,7 +52886,7 @@
         <v>0.47098214285714285</v>
       </c>
       <c r="AD132" t="n">
-        <v>0.5787705666120099</v>
+        <v>0.5787705666120097</v>
       </c>
       <c r="AE132" t="n">
         <v>1.9444444444444444</v>
@@ -53064,7 +53064,7 @@
         <v>0.359375</v>
       </c>
       <c r="CL132" t="n">
-        <v>0.5783592835486587</v>
+        <v>0.5783592835486583</v>
       </c>
       <c r="CM132" t="n">
         <v>2.138888888888889</v>
@@ -53219,7 +53219,7 @@
         <v>0.9115646258503401</v>
       </c>
       <c r="AD133" t="n">
-        <v>0.7198212686350157</v>
+        <v>0.7198212686350159</v>
       </c>
       <c r="AE133" t="n">
         <v>1.9285714285714286</v>
@@ -53550,7 +53550,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="AD134" t="n">
-        <v>0.7311064553717899</v>
+        <v>0.7311064553717898</v>
       </c>
       <c r="AE134" t="n">
         <v>1.7777777777777777</v>
@@ -53730,7 +53730,7 @@
         <v>0.30245535714285715</v>
       </c>
       <c r="CL134" t="n">
-        <v>0.3428141511677074</v>
+        <v>0.34281415116770714</v>
       </c>
       <c r="CM134" t="n">
         <v>1.3888888888888888</v>
@@ -54220,7 +54220,7 @@
         <v>0.7482993197278912</v>
       </c>
       <c r="AD136" t="n">
-        <v>0.5965748223936601</v>
+        <v>0.5965748223936598</v>
       </c>
       <c r="AE136" t="n">
         <v>1.7857142857142858</v>
@@ -54398,7 +54398,7 @@
         <v>0.39955357142857145</v>
       </c>
       <c r="CL136" t="n">
-        <v>0.46835375832002973</v>
+        <v>0.46835375832003007</v>
       </c>
       <c r="CM136" t="n">
         <v>2.388888888888889</v>
@@ -54551,7 +54551,7 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="AD137" t="n">
-        <v>0.5332103971819873</v>
+        <v>0.5332103971819876</v>
       </c>
       <c r="AE137" t="n">
         <v>2.1785714285714284</v>
@@ -54731,7 +54731,7 @@
         <v>0.5782312925170068</v>
       </c>
       <c r="CL137" t="n">
-        <v>0.6181732968593422</v>
+        <v>0.618173296859343</v>
       </c>
       <c r="CM137" t="n">
         <v>2.25</v>
@@ -54886,7 +54886,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="AD138" t="n">
-        <v>0.6445604177366935</v>
+        <v>0.6445604177366934</v>
       </c>
       <c r="AE138" t="n">
         <v>1.6428571428571428</v>
@@ -55066,7 +55066,7 @@
         <v>0.6380165289256199</v>
       </c>
       <c r="CL138" t="n">
-        <v>0.6367259172483799</v>
+        <v>0.6367259172483807</v>
       </c>
       <c r="CM138" t="n">
         <v>2.787878787878788</v>
@@ -55399,7 +55399,7 @@
         <v>0.9084821428571429</v>
       </c>
       <c r="CL139" t="n">
-        <v>0.6849421629544861</v>
+        <v>0.6849421629544862</v>
       </c>
       <c r="CM139" t="n">
         <v>1.7222222222222223</v>
@@ -55554,7 +55554,7 @@
         <v>0.3945578231292517</v>
       </c>
       <c r="AD140" t="n">
-        <v>0.45972878224337776</v>
+        <v>0.45972878224337804</v>
       </c>
       <c r="AE140" t="n">
         <v>2.357142857142857</v>
@@ -56069,7 +56069,7 @@
         <v>0.7053571428571429</v>
       </c>
       <c r="CL141" t="n">
-        <v>0.6119466048098682</v>
+        <v>0.611946604809868</v>
       </c>
       <c r="CM141" t="n">
         <v>1.6111111111111112</v>
@@ -56224,7 +56224,7 @@
         <v>0.9155555555555556</v>
       </c>
       <c r="AD142" t="n">
-        <v>0.7609407998274901</v>
+        <v>0.7609407998274903</v>
       </c>
       <c r="AE142" t="n">
         <v>2.109090909090909</v>
@@ -56404,7 +56404,7 @@
         <v>0.7146464646464646</v>
       </c>
       <c r="CL142" t="n">
-        <v>0.7130276918228549</v>
+        <v>0.7130276918228546</v>
       </c>
       <c r="CM142" t="n">
         <v>2.7435897435897436</v>
@@ -56559,7 +56559,7 @@
         <v>0.7160493827160493</v>
       </c>
       <c r="AD143" t="n">
-        <v>0.6716460727253373</v>
+        <v>0.6716460727253375</v>
       </c>
       <c r="AE143" t="n">
         <v>2.2888888888888888</v>
@@ -56739,7 +56739,7 @@
         <v>0.5702479338842975</v>
       </c>
       <c r="CL143" t="n">
-        <v>0.6257369421133393</v>
+        <v>0.625736942113339</v>
       </c>
       <c r="CM143" t="n">
         <v>2.6818181818181817</v>
@@ -57074,7 +57074,7 @@
         <v>0.3741496598639456</v>
       </c>
       <c r="CL144" t="n">
-        <v>0.5866317923548866</v>
+        <v>0.5866317923548858</v>
       </c>
       <c r="CM144" t="n">
         <v>2.4642857142857144</v>
@@ -57229,7 +57229,7 @@
         <v>0.6866666666666666</v>
       </c>
       <c r="AD145" t="n">
-        <v>0.664241078960766</v>
+        <v>0.6642410789607661</v>
       </c>
       <c r="AE145" t="n">
         <v>2.581818181818182</v>
@@ -57409,7 +57409,7 @@
         <v>0.618312757201646</v>
       </c>
       <c r="CL145" t="n">
-        <v>0.5619092827069998</v>
+        <v>0.5619092827070001</v>
       </c>
       <c r="CM145" t="n">
         <v>2.4</v>
@@ -57564,7 +57564,7 @@
         <v>0.5825892857142857</v>
       </c>
       <c r="AD146" t="n">
-        <v>0.6045685787218036</v>
+        <v>0.6045685787218037</v>
       </c>
       <c r="AE146" t="n">
         <v>1.75</v>
@@ -57744,7 +57744,7 @@
         <v>0.6763392857142858</v>
       </c>
       <c r="CL146" t="n">
-        <v>0.5954941983071365</v>
+        <v>0.5954941983071362</v>
       </c>
       <c r="CM146" t="n">
         <v>1.75</v>
@@ -58077,7 +58077,7 @@
         <v>0.71875</v>
       </c>
       <c r="CL147" t="n">
-        <v>0.5627984553441812</v>
+        <v>0.562798455344181</v>
       </c>
       <c r="CM147" t="n">
         <v>1.6111111111111112</v>
@@ -58412,7 +58412,7 @@
         <v>0.7253460207612457</v>
       </c>
       <c r="CL148" t="n">
-        <v>0.7082271898066459</v>
+        <v>0.7082271898066461</v>
       </c>
       <c r="CM148" t="n">
         <v>2.980392156862745</v>
@@ -58567,7 +58567,7 @@
         <v>0.33816964285714274</v>
       </c>
       <c r="AD149" t="n">
-        <v>0.5355619914211885</v>
+        <v>0.5355619914211882</v>
       </c>
       <c r="AE149" t="n">
         <v>2.0</v>
@@ -58747,7 +58747,7 @@
         <v>0.9330357142857143</v>
       </c>
       <c r="CL149" t="n">
-        <v>0.7373541629766233</v>
+        <v>0.7373541629766228</v>
       </c>
       <c r="CM149" t="n">
         <v>1.9444444444444444</v>
@@ -59082,7 +59082,7 @@
         <v>0.16964285714285715</v>
       </c>
       <c r="CL150" t="n">
-        <v>0.5118052032229148</v>
+        <v>0.5118052032229149</v>
       </c>
       <c r="CM150" t="n">
         <v>1.7777777777777777</v>
@@ -59237,7 +59237,7 @@
         <v>0.4174107142857143</v>
       </c>
       <c r="AD151" t="n">
-        <v>0.5022594200704352</v>
+        <v>0.502259420070435</v>
       </c>
       <c r="AE151" t="n">
         <v>1.7777777777777777</v>
@@ -59572,7 +59572,7 @@
         <v>1.0</v>
       </c>
       <c r="AD152" t="n">
-        <v>0.7387961250362585</v>
+        <v>0.7387961250362588</v>
       </c>
       <c r="AE152" t="n">
         <v>1.7777777777777777</v>
@@ -59752,7 +59752,7 @@
         <v>0.9330357142857143</v>
       </c>
       <c r="CL152" t="n">
-        <v>0.737354162976623</v>
+        <v>0.7373541629766232</v>
       </c>
       <c r="CM152" t="n">
         <v>1.9444444444444444</v>
@@ -59907,7 +59907,7 @@
         <v>0.40637860082304533</v>
       </c>
       <c r="AD153" t="n">
-        <v>0.5713505975045008</v>
+        <v>0.5713505975045005</v>
       </c>
       <c r="AE153" t="n">
         <v>1.8888888888888888</v>
@@ -60087,7 +60087,7 @@
         <v>0.6598639455782312</v>
       </c>
       <c r="CL153" t="n">
-        <v>0.6695606899782187</v>
+        <v>0.6695606899782188</v>
       </c>
       <c r="CM153" t="n">
         <v>2.392857142857143</v>
@@ -60240,7 +60240,7 @@
         <v>0.8348214285714286</v>
       </c>
       <c r="AD154" t="n">
-        <v>0.7158465280221539</v>
+        <v>0.7158465280221536</v>
       </c>
       <c r="AE154" t="n">
         <v>2.0555555555555554</v>
@@ -60420,7 +60420,7 @@
         <v>0.7603305785123967</v>
       </c>
       <c r="CL154" t="n">
-        <v>0.7212822902266606</v>
+        <v>0.7212822902266608</v>
       </c>
       <c r="CM154" t="n">
         <v>2.393939393939394</v>
@@ -60573,7 +60573,7 @@
         <v>0.6339285714285714</v>
       </c>
       <c r="AD155" t="n">
-        <v>0.7317075133648476</v>
+        <v>0.7317075133648479</v>
       </c>
       <c r="AE155" t="n">
         <v>2.5555555555555554</v>
@@ -60753,7 +60753,7 @@
         <v>0.19308035714285712</v>
       </c>
       <c r="CL155" t="n">
-        <v>0.3660683565599613</v>
+        <v>0.3660683565599609</v>
       </c>
       <c r="CM155" t="n">
         <v>1.5277777777777777</v>
@@ -60906,7 +60906,7 @@
         <v>0.3151927437641723</v>
       </c>
       <c r="AD156" t="n">
-        <v>0.3818600258936544</v>
+        <v>0.3818600258936547</v>
       </c>
       <c r="AE156" t="n">
         <v>1.3928571428571428</v>
@@ -61086,7 +61086,7 @@
         <v>0.33106575963718826</v>
       </c>
       <c r="CL156" t="n">
-        <v>0.42720245679300195</v>
+        <v>0.42720245679300256</v>
       </c>
       <c r="CM156" t="n">
         <v>1.5</v>
@@ -61241,7 +61241,7 @@
         <v>0.8258928571428571</v>
       </c>
       <c r="AD157" t="n">
-        <v>0.6824736642508329</v>
+        <v>0.6824736642508332</v>
       </c>
       <c r="AE157" t="n">
         <v>1.8611111111111112</v>
@@ -61421,7 +61421,7 @@
         <v>0.8348214285714286</v>
       </c>
       <c r="CL157" t="n">
-        <v>0.715846528022154</v>
+        <v>0.7158465280221539</v>
       </c>
       <c r="CM157" t="n">
         <v>2.0555555555555554</v>
@@ -61576,7 +61576,7 @@
         <v>0.9475308641975309</v>
       </c>
       <c r="AD158" t="n">
-        <v>0.7508583628494185</v>
+        <v>0.7508583628494184</v>
       </c>
       <c r="AE158" t="n">
         <v>1.9555555555555555</v>
@@ -61756,7 +61756,7 @@
         <v>0.5892857142857143</v>
       </c>
       <c r="CL158" t="n">
-        <v>0.5580762710817458</v>
+        <v>0.5580762710817454</v>
       </c>
       <c r="CM158" t="n">
         <v>1.5833333333333333</v>
@@ -62091,7 +62091,7 @@
         <v>0.5537190082644629</v>
       </c>
       <c r="CL159" t="n">
-        <v>0.6972999605399954</v>
+        <v>0.6972999605399958</v>
       </c>
       <c r="CM159" t="n">
         <v>3.484848484848485</v>
@@ -62426,7 +62426,7 @@
         <v>0.8348214285714286</v>
       </c>
       <c r="CL160" t="n">
-        <v>0.7158465280221536</v>
+        <v>0.7158465280221539</v>
       </c>
       <c r="CM160" t="n">
         <v>2.0555555555555554</v>
@@ -62916,7 +62916,7 @@
         <v>0.421875</v>
       </c>
       <c r="AD162" t="n">
-        <v>0.6169711485132225</v>
+        <v>0.6169711485132227</v>
       </c>
       <c r="AE162" t="n">
         <v>2.0</v>
@@ -63251,7 +63251,7 @@
         <v>0.9047619047619048</v>
       </c>
       <c r="AD163" t="n">
-        <v>0.6666666666666669</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AE163" t="n">
         <v>1.6785714285714286</v>
@@ -63586,7 +63586,7 @@
         <v>0.6296296296296297</v>
       </c>
       <c r="AD164" t="n">
-        <v>0.5778968072079362</v>
+        <v>0.5778968072079366</v>
       </c>
       <c r="AE164" t="n">
         <v>2.2444444444444445</v>
@@ -63766,7 +63766,7 @@
         <v>0.71875</v>
       </c>
       <c r="CL164" t="n">
-        <v>0.6341776706179163</v>
+        <v>0.6341776706179166</v>
       </c>
       <c r="CM164" t="n">
         <v>1.7777777777777777</v>
@@ -64436,7 +64436,7 @@
         <v>1.0</v>
       </c>
       <c r="CL166" t="n">
-        <v>0.7387961250362586</v>
+        <v>0.7387961250362585</v>
       </c>
       <c r="CM166" t="n">
         <v>1.7777777777777777</v>
@@ -64591,7 +64591,7 @@
         <v>0.09750566893424033</v>
       </c>
       <c r="AD167" t="n">
-        <v>0.41504058129208365</v>
+        <v>0.4150405812920841</v>
       </c>
       <c r="AE167" t="n">
         <v>1.6785714285714286</v>
@@ -64771,7 +64771,7 @@
         <v>0.34375</v>
       </c>
       <c r="CL167" t="n">
-        <v>0.5068254783745869</v>
+        <v>0.5068254783745862</v>
       </c>
       <c r="CM167" t="n">
         <v>1.7777777777777777</v>
@@ -64922,7 +64922,7 @@
         <v>1.0</v>
       </c>
       <c r="AD168" t="n">
-        <v>0.7387961250362586</v>
+        <v>0.7387961250362585</v>
       </c>
       <c r="AE168" t="n">
         <v>1.7777777777777777</v>
@@ -65102,7 +65102,7 @@
         <v>1.0</v>
       </c>
       <c r="CL168" t="n">
-        <v>0.7387961250362587</v>
+        <v>0.7387961250362584</v>
       </c>
       <c r="CM168" t="n">
         <v>1.7777777777777777</v>
@@ -65437,7 +65437,7 @@
         <v>0.7687074829931972</v>
       </c>
       <c r="CL169" t="n">
-        <v>0.6480858022788191</v>
+        <v>0.6480858022788194</v>
       </c>
       <c r="CM169" t="n">
         <v>1.8214285714285714</v>
@@ -65592,7 +65592,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="AD170" t="n">
-        <v>0.6940948406206621</v>
+        <v>0.694094840620662</v>
       </c>
       <c r="AE170" t="n">
         <v>1.7222222222222223</v>
@@ -65772,7 +65772,7 @@
         <v>0.9047619047619048</v>
       </c>
       <c r="CL170" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CM170" t="n">
         <v>2.0</v>
@@ -65927,7 +65927,7 @@
         <v>0.8950617283950617</v>
       </c>
       <c r="AD171" t="n">
-        <v>0.7473061483201127</v>
+        <v>0.7473061483201126</v>
       </c>
       <c r="AE171" t="n">
         <v>2.111111111111111</v>
@@ -66107,7 +66107,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="CL171" t="n">
-        <v>0.7085126417473786</v>
+        <v>0.7085126417473785</v>
       </c>
       <c r="CM171" t="n">
         <v>2.5454545454545454</v>
@@ -66262,7 +66262,7 @@
         <v>0.47619047619047616</v>
       </c>
       <c r="AD172" t="n">
-        <v>0.5285954792089682</v>
+        <v>0.5285954792089685</v>
       </c>
       <c r="AE172" t="n">
         <v>1.5</v>
@@ -66442,7 +66442,7 @@
         <v>0.5404040404040404</v>
       </c>
       <c r="CL172" t="n">
-        <v>0.6796957214080421</v>
+        <v>0.6796957214080418</v>
       </c>
       <c r="CM172" t="n">
         <v>4.230769230769231</v>
@@ -66597,7 +66597,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AD173" t="n">
-        <v>0.4250591347893139</v>
+        <v>0.42505913478931373</v>
       </c>
       <c r="AE173" t="n">
         <v>1.6388888888888888</v>
@@ -66777,7 +66777,7 @@
         <v>0.38950892857142855</v>
       </c>
       <c r="CL173" t="n">
-        <v>0.44255712441542755</v>
+        <v>0.44255712441542794</v>
       </c>
       <c r="CM173" t="n">
         <v>1.4722222222222223</v>
@@ -66932,7 +66932,7 @@
         <v>0.8660714285714286</v>
       </c>
       <c r="AD174" t="n">
-        <v>0.7290544111098353</v>
+        <v>0.7290544111098354</v>
       </c>
       <c r="AE174" t="n">
         <v>2.111111111111111</v>
@@ -67267,7 +67267,7 @@
         <v>0.7278911564625851</v>
       </c>
       <c r="AD175" t="n">
-        <v>0.5708758460455461</v>
+        <v>0.570875846045546</v>
       </c>
       <c r="AE175" t="n">
         <v>1.75</v>
@@ -67782,7 +67782,7 @@
         <v>0.35802469135802467</v>
       </c>
       <c r="CL176" t="n">
-        <v>0.5643583095225352</v>
+        <v>0.5643583095225343</v>
       </c>
       <c r="CM176" t="n">
         <v>2.311111111111111</v>
@@ -67937,7 +67937,7 @@
         <v>0.43537414965986393</v>
       </c>
       <c r="AD177" t="n">
-        <v>0.5716301166041701</v>
+        <v>0.5716301166041696</v>
       </c>
       <c r="AE177" t="n">
         <v>2.7142857142857144</v>
@@ -68117,7 +68117,7 @@
         <v>0.6938775510204082</v>
       </c>
       <c r="CL177" t="n">
-        <v>0.626226552146786</v>
+        <v>0.6262265521467861</v>
       </c>
       <c r="CM177" t="n">
         <v>2.0357142857142856</v>
@@ -68270,7 +68270,7 @@
         <v>0.6744444444444444</v>
       </c>
       <c r="AD178" t="n">
-        <v>0.5934492632683187</v>
+        <v>0.5934492632683191</v>
       </c>
       <c r="AE178" t="n">
         <v>2.1818181818181817</v>
@@ -68450,7 +68450,7 @@
         <v>0.42901234567901236</v>
       </c>
       <c r="CL178" t="n">
-        <v>0.5678898623107804</v>
+        <v>0.5678898623107808</v>
       </c>
       <c r="CM178" t="n">
         <v>2.488888888888889</v>
@@ -68605,7 +68605,7 @@
         <v>0.7407407407407407</v>
       </c>
       <c r="AD179" t="n">
-        <v>0.6938137821521027</v>
+        <v>0.693813782152103</v>
       </c>
       <c r="AE179" t="n">
         <v>2.3333333333333335</v>
@@ -68785,7 +68785,7 @@
         <v>0.5917355371900826</v>
       </c>
       <c r="CL179" t="n">
-        <v>0.6026440718482811</v>
+        <v>0.6026440718482815</v>
       </c>
       <c r="CM179" t="n">
         <v>2.8484848484848486</v>
@@ -68940,7 +68940,7 @@
         <v>0.7755102040816326</v>
       </c>
       <c r="AD180" t="n">
-        <v>0.678399933876042</v>
+        <v>0.6783999338760421</v>
       </c>
       <c r="AE180" t="n">
         <v>2.0714285714285716</v>
@@ -69120,7 +69120,7 @@
         <v>1.0</v>
       </c>
       <c r="CL180" t="n">
-        <v>0.7387961250362585</v>
+        <v>0.7387961250362587</v>
       </c>
       <c r="CM180" t="n">
         <v>1.7777777777777777</v>
@@ -69275,7 +69275,7 @@
         <v>0.6294642857142857</v>
       </c>
       <c r="AD181" t="n">
-        <v>0.5902267906109993</v>
+        <v>0.5902267906109991</v>
       </c>
       <c r="AE181" t="n">
         <v>1.5833333333333333</v>
@@ -69455,7 +69455,7 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="CL181" t="n">
-        <v>0.6927659187777212</v>
+        <v>0.6927659187777214</v>
       </c>
       <c r="CM181" t="n">
         <v>1.7142857142857142</v>
@@ -69943,7 +69943,7 @@
         <v>0.3395061728395062</v>
       </c>
       <c r="AD183" t="n">
-        <v>0.5366565519156709</v>
+        <v>0.5366565519156714</v>
       </c>
       <c r="AE183" t="n">
         <v>2.2222222222222223</v>
@@ -70123,7 +70123,7 @@
         <v>0.9084821428571429</v>
       </c>
       <c r="CL183" t="n">
-        <v>0.6849421629544864</v>
+        <v>0.684942162954486</v>
       </c>
       <c r="CM183" t="n">
         <v>1.7222222222222223</v>
@@ -70456,7 +70456,7 @@
         <v>0.375</v>
       </c>
       <c r="CL184" t="n">
-        <v>0.29449612126519725</v>
+        <v>0.29449612126519675</v>
       </c>
       <c r="CM184" t="n">
         <v>2.6666666666666665</v>
@@ -70611,7 +70611,7 @@
         <v>0.25617283950617287</v>
       </c>
       <c r="AD185" t="n">
-        <v>0.5749521604360235</v>
+        <v>0.5749521604360234</v>
       </c>
       <c r="AE185" t="n">
         <v>2.2666666666666666</v>
@@ -70791,7 +70791,7 @@
         <v>0.3705357142857143</v>
       </c>
       <c r="CL185" t="n">
-        <v>0.4764634720294021</v>
+        <v>0.4764634720294025</v>
       </c>
       <c r="CM185" t="n">
         <v>1.9444444444444444</v>
@@ -70946,7 +70946,7 @@
         <v>1.0</v>
       </c>
       <c r="AD186" t="n">
-        <v>0.7387961250362588</v>
+        <v>0.7387961250362585</v>
       </c>
       <c r="AE186" t="n">
         <v>1.7777777777777777</v>
@@ -71126,7 +71126,7 @@
         <v>0.7946428571428571</v>
       </c>
       <c r="CL186" t="n">
-        <v>0.6916902380795467</v>
+        <v>0.6916902380795465</v>
       </c>
       <c r="CM186" t="n">
         <v>2.0555555555555554</v>
@@ -71281,7 +71281,7 @@
         <v>0.1527037037037037</v>
       </c>
       <c r="AD187" t="n">
-        <v>0.386821874634382</v>
+        <v>0.3868218746343816</v>
       </c>
       <c r="AE187" t="n">
         <v>1.7272727272727273</v>
@@ -71461,7 +71461,7 @@
         <v>0.026757369614512472</v>
       </c>
       <c r="CL187" t="n">
-        <v>0.16619837235462556</v>
+        <v>0.16619837235462467</v>
       </c>
       <c r="CM187" t="n">
         <v>1.25</v>
@@ -71610,7 +71610,7 @@
         <v>0.564625850340136</v>
       </c>
       <c r="AD188" t="n">
-        <v>0.5504446636868857</v>
+        <v>0.5504446636868856</v>
       </c>
       <c r="AE188" t="n">
         <v>2.3214285714285716</v>
@@ -71790,7 +71790,7 @@
         <v>0.6054421768707483</v>
       </c>
       <c r="CL188" t="n">
-        <v>0.5807972413352408</v>
+        <v>0.5807972413352411</v>
       </c>
       <c r="CM188" t="n">
         <v>2.392857142857143</v>
@@ -71945,7 +71945,7 @@
         <v>0.8035714285714286</v>
       </c>
       <c r="AD189" t="n">
-        <v>0.6488604596087216</v>
+        <v>0.6488604596087215</v>
       </c>
       <c r="AE189" t="n">
         <v>2.0</v>
@@ -72125,7 +72125,7 @@
         <v>1.0</v>
       </c>
       <c r="CL189" t="n">
-        <v>0.7387961250362586</v>
+        <v>0.7387961250362588</v>
       </c>
       <c r="CM189" t="n">
         <v>1.7777777777777777</v>
@@ -72280,7 +72280,7 @@
         <v>0.6316964285714286</v>
       </c>
       <c r="AD190" t="n">
-        <v>0.6383527826887683</v>
+        <v>0.6383527826887684</v>
       </c>
       <c r="AE190" t="n">
         <v>1.9444444444444444</v>
@@ -72795,7 +72795,7 @@
         <v>0.7238461538461538</v>
       </c>
       <c r="CL191" t="n">
-        <v>0.799971678809414</v>
+        <v>0.7999716788094139</v>
       </c>
       <c r="CM191" t="n">
         <v>3.6125356125356127</v>
@@ -73128,7 +73128,7 @@
         <v>0.7232142857142857</v>
       </c>
       <c r="CL192" t="n">
-        <v>0.6524938671103893</v>
+        <v>0.6524938671103896</v>
       </c>
       <c r="CM192" t="n">
         <v>2.0</v>
@@ -73283,7 +73283,7 @@
         <v>0.5306122448979592</v>
       </c>
       <c r="AD193" t="n">
-        <v>0.5190608800702812</v>
+        <v>0.5190608800702811</v>
       </c>
       <c r="AE193" t="n">
         <v>1.5</v>
@@ -73463,7 +73463,7 @@
         <v>0.22321428571428573</v>
       </c>
       <c r="CL193" t="n">
-        <v>0.5660921556327171</v>
+        <v>0.5660921556327173</v>
       </c>
       <c r="CM193" t="n">
         <v>2.3333333333333335</v>
@@ -73618,7 +73618,7 @@
         <v>0.8435374149659864</v>
       </c>
       <c r="AD194" t="n">
-        <v>0.6621100846456921</v>
+        <v>0.6621100846456919</v>
       </c>
       <c r="AE194" t="n">
         <v>1.8571428571428572</v>
@@ -73798,7 +73798,7 @@
         <v>1.0</v>
       </c>
       <c r="CL194" t="n">
-        <v>0.725708114822568</v>
+        <v>0.7257081148225684</v>
       </c>
       <c r="CM194" t="n">
         <v>1.75</v>
@@ -73951,7 +73951,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="AD195" t="n">
-        <v>0.7064782743171449</v>
+        <v>0.7064782743171452</v>
       </c>
       <c r="AE195" t="n">
         <v>2.422222222222222</v>
@@ -74129,7 +74129,7 @@
         <v>0.7654320987654321</v>
       </c>
       <c r="CL195" t="n">
-        <v>0.706270847963424</v>
+        <v>0.7062708479634239</v>
       </c>
       <c r="CM195" t="n">
         <v>2.3777777777777778</v>
@@ -74284,7 +74284,7 @@
         <v>0.7950413223140496</v>
       </c>
       <c r="AD196" t="n">
-        <v>0.6810318994325293</v>
+        <v>0.6810318994325292</v>
       </c>
       <c r="AE196" t="n">
         <v>1.7121212121212122</v>
@@ -74464,7 +74464,7 @@
         <v>0.595679012345679</v>
       </c>
       <c r="CL196" t="n">
-        <v>0.5869947929979026</v>
+        <v>0.5869947929979028</v>
       </c>
       <c r="CM196" t="n">
         <v>1.6</v>
@@ -74619,7 +74619,7 @@
         <v>0.6214876033057851</v>
       </c>
       <c r="AD197" t="n">
-        <v>0.6601852900511808</v>
+        <v>0.660185290051181</v>
       </c>
       <c r="AE197" t="n">
         <v>2.5757575757575757</v>
@@ -74799,7 +74799,7 @@
         <v>0.49107142857142855</v>
       </c>
       <c r="CL197" t="n">
-        <v>0.4888987480000478</v>
+        <v>0.4888987480000479</v>
       </c>
       <c r="CM197" t="n">
         <v>2.4444444444444446</v>
@@ -74954,7 +74954,7 @@
         <v>0.9115646258503401</v>
       </c>
       <c r="AD198" t="n">
-        <v>0.7198212686350156</v>
+        <v>0.7198212686350155</v>
       </c>
       <c r="AE198" t="n">
         <v>1.9285714285714286</v>
@@ -75134,7 +75134,7 @@
         <v>0.9330357142857143</v>
       </c>
       <c r="CL198" t="n">
-        <v>0.7373541629766229</v>
+        <v>0.7373541629766232</v>
       </c>
       <c r="CM198" t="n">
         <v>1.9444444444444444</v>
@@ -75289,7 +75289,7 @@
         <v>0.6422222222222222</v>
       </c>
       <c r="AD199" t="n">
-        <v>0.6373191322811043</v>
+        <v>0.6373191322811039</v>
       </c>
       <c r="AE199" t="n">
         <v>2.5454545454545454</v>
@@ -75624,7 +75624,7 @@
         <v>0.691358024691358</v>
       </c>
       <c r="AD200" t="n">
-        <v>0.6925162765368543</v>
+        <v>0.6925162765368542</v>
       </c>
       <c r="AE200" t="n">
         <v>2.688888888888889</v>
@@ -75804,7 +75804,7 @@
         <v>0.43</v>
       </c>
       <c r="CL200" t="n">
-        <v>0.5385219844512258</v>
+        <v>0.5385219844512256</v>
       </c>
       <c r="CM200" t="n">
         <v>2.581818181818182</v>
@@ -75957,7 +75957,7 @@
         <v>0.2767857142857143</v>
       </c>
       <c r="AD201" t="n">
-        <v>0.41459504585077006</v>
+        <v>0.41459504585077017</v>
       </c>
       <c r="AE201" t="n">
         <v>2.5277777777777777</v>
@@ -76137,7 +76137,7 @@
         <v>1.0</v>
       </c>
       <c r="CL201" t="n">
-        <v>0.7257081148225683</v>
+        <v>0.7257081148225684</v>
       </c>
       <c r="CM201" t="n">
         <v>1.75</v>
@@ -76472,7 +76472,7 @@
         <v>1.0</v>
       </c>
       <c r="CL202" t="n">
-        <v>0.7387961250362584</v>
+        <v>0.7387961250362585</v>
       </c>
       <c r="CM202" t="n">
         <v>1.7777777777777777</v>
@@ -76627,7 +76627,7 @@
         <v>0.6882716049382716</v>
       </c>
       <c r="AD203" t="n">
-        <v>0.6591193552350736</v>
+        <v>0.6591193552350734</v>
       </c>
       <c r="AE203" t="n">
         <v>2.488888888888889</v>
@@ -76962,7 +76962,7 @@
         <v>0.7053571428571429</v>
       </c>
       <c r="AD204" t="n">
-        <v>0.6500728938881177</v>
+        <v>0.6500728938881173</v>
       </c>
       <c r="AE204" t="n">
         <v>2.111111111111111</v>
@@ -77142,7 +77142,7 @@
         <v>0.35147392290249424</v>
       </c>
       <c r="CL204" t="n">
-        <v>0.4768610798537741</v>
+        <v>0.4768610798537744</v>
       </c>
       <c r="CM204" t="n">
         <v>1.6785714285714286</v>
@@ -77297,7 +77297,7 @@
         <v>0.8660714285714286</v>
       </c>
       <c r="AD205" t="n">
-        <v>0.7290544111098354</v>
+        <v>0.7290544111098353</v>
       </c>
       <c r="AE205" t="n">
         <v>2.111111111111111</v>
@@ -77477,7 +77477,7 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="CL205" t="n">
-        <v>0.6592658320000323</v>
+        <v>0.6592658320000321</v>
       </c>
       <c r="CM205" t="n">
         <v>2.5</v>
@@ -77632,7 +77632,7 @@
         <v>0.6035353535353535</v>
       </c>
       <c r="AD206" t="n">
-        <v>0.6570557137840781</v>
+        <v>0.6570557137840779</v>
       </c>
       <c r="AE206" t="n">
         <v>2.871794871794872</v>
@@ -77812,7 +77812,7 @@
         <v>0.26785714285714285</v>
       </c>
       <c r="CL206" t="n">
-        <v>0.3837497836178506</v>
+        <v>0.3837497836178508</v>
       </c>
       <c r="CM206" t="n">
         <v>3.3333333333333335</v>
@@ -77967,7 +77967,7 @@
         <v>1.0</v>
       </c>
       <c r="AD207" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.7499999999999998</v>
       </c>
       <c r="AE207" t="n">
         <v>1.8</v>
@@ -78147,7 +78147,7 @@
         <v>0.19642857142857142</v>
       </c>
       <c r="CL207" t="n">
-        <v>0.30828181814425715</v>
+        <v>0.30828181814425687</v>
       </c>
       <c r="CM207" t="n">
         <v>1.5277777777777777</v>
@@ -78302,7 +78302,7 @@
         <v>0.21768707482993196</v>
       </c>
       <c r="AD208" t="n">
-        <v>0.5298565731262218</v>
+        <v>0.5298565731262217</v>
       </c>
       <c r="AE208" t="n">
         <v>1.7142857142857142</v>
@@ -78482,7 +78482,7 @@
         <v>1.0</v>
       </c>
       <c r="CL208" t="n">
-        <v>0.7387961250362585</v>
+        <v>0.7387961250362584</v>
       </c>
       <c r="CM208" t="n">
         <v>1.7777777777777777</v>
@@ -78635,7 +78635,7 @@
         <v>0.6696428571428571</v>
       </c>
       <c r="AD209" t="n">
-        <v>0.6393837730327816</v>
+        <v>0.639383773032782</v>
       </c>
       <c r="AE209" t="n">
         <v>2.3333333333333335</v>
@@ -78815,7 +78815,7 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="CL209" t="n">
-        <v>0.6596568552886526</v>
+        <v>0.6596568552886524</v>
       </c>
       <c r="CM209" t="n">
         <v>1.8611111111111112</v>
@@ -78970,7 +78970,7 @@
         <v>0.5214646464646465</v>
       </c>
       <c r="AD210" t="n">
-        <v>0.5904696317125487</v>
+        <v>0.5904696317125494</v>
       </c>
       <c r="AE210" t="n">
         <v>3.5384615384615383</v>
@@ -79150,7 +79150,7 @@
         <v>0.29464285714285715</v>
       </c>
       <c r="CL210" t="n">
-        <v>0.4734518633430835</v>
+        <v>0.4734518633430826</v>
       </c>
       <c r="CM210" t="n">
         <v>3.1666666666666665</v>
@@ -79485,7 +79485,7 @@
         <v>1.0</v>
       </c>
       <c r="CL211" t="n">
-        <v>0.7257081148225684</v>
+        <v>0.725708114822568</v>
       </c>
       <c r="CM211" t="n">
         <v>1.75</v>
@@ -79640,7 +79640,7 @@
         <v>0.7346938775510204</v>
       </c>
       <c r="AD212" t="n">
-        <v>0.6645496732106428</v>
+        <v>0.664549673210643</v>
       </c>
       <c r="AE212" t="n">
         <v>2.0</v>
@@ -80155,7 +80155,7 @@
         <v>0.8966666666666666</v>
       </c>
       <c r="CL213" t="n">
-        <v>0.7060276321039344</v>
+        <v>0.7060276321039343</v>
       </c>
       <c r="CM213" t="n">
         <v>1.7636363636363637</v>
@@ -80308,7 +80308,7 @@
         <v>0.8102678571428571</v>
       </c>
       <c r="AD214" t="n">
-        <v>0.6634437389281395</v>
+        <v>0.6634437389281393</v>
       </c>
       <c r="AE214" t="n">
         <v>1.8333333333333333</v>
@@ -80488,7 +80488,7 @@
         <v>0.6785714285714286</v>
       </c>
       <c r="CL214" t="n">
-        <v>0.6898685857626187</v>
+        <v>0.6898685857626186</v>
       </c>
       <c r="CM214" t="n">
         <v>2.2777777777777777</v>
@@ -80641,7 +80641,7 @@
         <v>0.6938775510204082</v>
       </c>
       <c r="AD215" t="n">
-        <v>0.6404973956795336</v>
+        <v>0.6404973956795333</v>
       </c>
       <c r="AE215" t="n">
         <v>2.2142857142857144</v>
@@ -80821,7 +80821,7 @@
         <v>1.0</v>
       </c>
       <c r="CL215" t="n">
-        <v>0.7387961250362585</v>
+        <v>0.7387961250362588</v>
       </c>
       <c r="CM215" t="n">
         <v>1.7777777777777777</v>
@@ -80976,7 +80976,7 @@
         <v>0.20424107142857142</v>
       </c>
       <c r="AD216" t="n">
-        <v>0.33271903255887114</v>
+        <v>0.33271903255887125</v>
       </c>
       <c r="AE216" t="n">
         <v>1.4166666666666667</v>
@@ -81156,7 +81156,7 @@
         <v>0.14397321428571427</v>
       </c>
       <c r="CL216" t="n">
-        <v>0.23115472830089764</v>
+        <v>0.23115472830089775</v>
       </c>
       <c r="CM216" t="n">
         <v>1.5833333333333333</v>
@@ -81311,7 +81311,7 @@
         <v>0.1859410430839002</v>
       </c>
       <c r="AD217" t="n">
-        <v>0.3740594144821025</v>
+        <v>0.3740594144821026</v>
       </c>
       <c r="AE217" t="n">
         <v>1.3571428571428572</v>
@@ -81491,7 +81491,7 @@
         <v>0.31250000000000006</v>
       </c>
       <c r="CL217" t="n">
-        <v>0.25105838567562194</v>
+        <v>0.25105838567562166</v>
       </c>
       <c r="CM217" t="n">
         <v>1.7222222222222223</v>
@@ -81646,7 +81646,7 @@
         <v>0.5736607142857143</v>
       </c>
       <c r="AD218" t="n">
-        <v>0.5419370455060459</v>
+        <v>0.541937045506046</v>
       </c>
       <c r="AE218" t="n">
         <v>1.5555555555555556</v>
@@ -81826,7 +81826,7 @@
         <v>0.22544642857142858</v>
       </c>
       <c r="CL218" t="n">
-        <v>0.43229878140017775</v>
+        <v>0.43229878140017786</v>
       </c>
       <c r="CM218" t="n">
         <v>1.4722222222222223</v>
@@ -81981,7 +81981,7 @@
         <v>0.7283950617283951</v>
       </c>
       <c r="AD219" t="n">
-        <v>0.6137927036568879</v>
+        <v>0.6137927036568881</v>
       </c>
       <c r="AE219" t="n">
         <v>2.311111111111111</v>
@@ -82161,7 +82161,7 @@
         <v>0.8303571428571429</v>
       </c>
       <c r="CL219" t="n">
-        <v>0.7083640165246597</v>
+        <v>0.7083640165246601</v>
       </c>
       <c r="CM219" t="n">
         <v>2.0833333333333335</v>
@@ -82316,7 +82316,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="AD220" t="n">
-        <v>0.6940948406206621</v>
+        <v>0.6940948406206623</v>
       </c>
       <c r="AE220" t="n">
         <v>1.7222222222222223</v>
@@ -82649,7 +82649,7 @@
         <v>0.6710743801652893</v>
       </c>
       <c r="AD221" t="n">
-        <v>0.6754872058979495</v>
+        <v>0.6754872058979493</v>
       </c>
       <c r="AE221" t="n">
         <v>2.121212121212121</v>
@@ -82829,7 +82829,7 @@
         <v>1.0</v>
       </c>
       <c r="CL221" t="n">
-        <v>0.7387961250362584</v>
+        <v>0.7387961250362587</v>
       </c>
       <c r="CM221" t="n">
         <v>1.7777777777777777</v>
@@ -83160,7 +83160,7 @@
         <v>1.0</v>
       </c>
       <c r="CL222" t="n">
-        <v>0.7387961250362584</v>
+        <v>0.7387961250362588</v>
       </c>
       <c r="CM222" t="n">
         <v>1.7777777777777777</v>
@@ -83315,7 +83315,7 @@
         <v>0.8214285714285714</v>
       </c>
       <c r="AD223" t="n">
-        <v>0.6239320177571865</v>
+        <v>0.6239320177571861</v>
       </c>
       <c r="AE223" t="n">
         <v>1.6388888888888888</v>
@@ -83493,7 +83493,7 @@
         <v>0.8163265306122449</v>
       </c>
       <c r="CL223" t="n">
-        <v>0.664447523787102</v>
+        <v>0.6644475237871023</v>
       </c>
       <c r="CM223" t="n">
         <v>1.8571428571428572</v>
@@ -83648,7 +83648,7 @@
         <v>0.7678571428571429</v>
       </c>
       <c r="AD224" t="n">
-        <v>0.6940481772627652</v>
+        <v>0.694048177262765</v>
       </c>
       <c r="AE224" t="n">
         <v>2.2222222222222223</v>
@@ -83828,7 +83828,7 @@
         <v>0.71875</v>
       </c>
       <c r="CL224" t="n">
-        <v>0.6046766699480534</v>
+        <v>0.6046766699480539</v>
       </c>
       <c r="CM224" t="n">
         <v>1.7777777777777777</v>
@@ -83983,7 +83983,7 @@
         <v>0.5859259259259259</v>
       </c>
       <c r="AD225" t="n">
-        <v>0.5988028660999825</v>
+        <v>0.598802866099982</v>
       </c>
       <c r="AE225" t="n">
         <v>2.272727272727273</v>
@@ -84163,7 +84163,7 @@
         <v>0.41917355371900833</v>
       </c>
       <c r="CL225" t="n">
-        <v>0.6257534581089732</v>
+        <v>0.625753458108973</v>
       </c>
       <c r="CM225" t="n">
         <v>2.0</v>
@@ -84318,7 +84318,7 @@
         <v>0.29464285714285715</v>
       </c>
       <c r="AD226" t="n">
-        <v>0.4734518633430827</v>
+        <v>0.4734518633430828</v>
       </c>
       <c r="AE226" t="n">
         <v>3.1666666666666665</v>
@@ -84651,7 +84651,7 @@
         <v>0.3950617283950617</v>
       </c>
       <c r="AD227" t="n">
-        <v>0.5399827715619256</v>
+        <v>0.5399827715619258</v>
       </c>
       <c r="AE227" t="n">
         <v>2.2666666666666666</v>
@@ -84831,7 +84831,7 @@
         <v>0.7008928571428571</v>
       </c>
       <c r="CL227" t="n">
-        <v>0.6521927807474874</v>
+        <v>0.6521927807474871</v>
       </c>
       <c r="CM227" t="n">
         <v>2.138888888888889</v>
@@ -84984,7 +84984,7 @@
         <v>0.39732142857142855</v>
       </c>
       <c r="AD228" t="n">
-        <v>0.5881635438484693</v>
+        <v>0.5881635438484698</v>
       </c>
       <c r="AE228" t="n">
         <v>1.7777777777777777</v>
@@ -85164,7 +85164,7 @@
         <v>0.06272321428571427</v>
       </c>
       <c r="CL228" t="n">
-        <v>0.22193207187086994</v>
+        <v>0.2219320718708697</v>
       </c>
       <c r="CM228" t="n">
         <v>1.2222222222222223</v>
@@ -85319,7 +85319,7 @@
         <v>0.8102678571428571</v>
       </c>
       <c r="AD229" t="n">
-        <v>0.6651223294223835</v>
+        <v>0.665122329422383</v>
       </c>
       <c r="AE229" t="n">
         <v>1.8333333333333333</v>
@@ -85654,7 +85654,7 @@
         <v>0.2623456790123457</v>
       </c>
       <c r="AD230" t="n">
-        <v>0.5229207818068708</v>
+        <v>0.5229207818068713</v>
       </c>
       <c r="AE230" t="n">
         <v>2.111111111111111</v>
@@ -86169,7 +86169,7 @@
         <v>0.359375</v>
       </c>
       <c r="CL231" t="n">
-        <v>0.5552648697450575</v>
+        <v>0.555264869745057</v>
       </c>
       <c r="CM231" t="n">
         <v>1.8888888888888888</v>
@@ -86324,7 +86324,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="AD232" t="n">
-        <v>0.6346347768482163</v>
+        <v>0.634634776848217</v>
       </c>
       <c r="AE232" t="n">
         <v>2.1666666666666665</v>
@@ -86504,7 +86504,7 @@
         <v>0.7482993197278912</v>
       </c>
       <c r="CL232" t="n">
-        <v>0.7104943027262234</v>
+        <v>0.7104943027262235</v>
       </c>
       <c r="CM232" t="n">
         <v>2.2142857142857144</v>
@@ -86659,7 +86659,7 @@
         <v>0.5514403292181069</v>
       </c>
       <c r="AD233" t="n">
-        <v>0.6339155073826621</v>
+        <v>0.6339155073826619</v>
       </c>
       <c r="AE233" t="n">
         <v>2.2888888888888888</v>
@@ -86839,7 +86839,7 @@
         <v>0.24553571428571427</v>
       </c>
       <c r="CL233" t="n">
-        <v>0.3656317630943562</v>
+        <v>0.36563176309435647</v>
       </c>
       <c r="CM233" t="n">
         <v>1.7222222222222223</v>
@@ -87327,7 +87327,7 @@
         <v>0.6116071428571429</v>
       </c>
       <c r="AD235" t="n">
-        <v>0.6437201132235808</v>
+        <v>0.6437201132235806</v>
       </c>
       <c r="AE235" t="n">
         <v>2.4444444444444446</v>
@@ -87507,7 +87507,7 @@
         <v>0.6054421768707483</v>
       </c>
       <c r="CL235" t="n">
-        <v>0.5807972413352412</v>
+        <v>0.580797241335241</v>
       </c>
       <c r="CM235" t="n">
         <v>2.392857142857143</v>
@@ -87662,7 +87662,7 @@
         <v>1.0</v>
       </c>
       <c r="AD236" t="n">
-        <v>0.7387961250362588</v>
+        <v>0.7387961250362584</v>
       </c>
       <c r="AE236" t="n">
         <v>1.7777777777777777</v>
@@ -87842,7 +87842,7 @@
         <v>1.0</v>
       </c>
       <c r="CL236" t="n">
-        <v>0.7387961250362585</v>
+        <v>0.7387961250362586</v>
       </c>
       <c r="CM236" t="n">
         <v>1.7777777777777777</v>
@@ -87997,7 +87997,7 @@
         <v>0.5578231292517006</v>
       </c>
       <c r="AD237" t="n">
-        <v>0.6096352672601816</v>
+        <v>0.6096352672601818</v>
       </c>
       <c r="AE237" t="n">
         <v>2.357142857142857</v>
@@ -88177,7 +88177,7 @@
         <v>0.7244444444444444</v>
       </c>
       <c r="CL237" t="n">
-        <v>0.6912563434990879</v>
+        <v>0.6912563434990884</v>
       </c>
       <c r="CM237" t="n">
         <v>2.0727272727272728</v>
@@ -88512,7 +88512,7 @@
         <v>0.9475308641975309</v>
       </c>
       <c r="CL238" t="n">
-        <v>0.7508583628494184</v>
+        <v>0.7508583628494181</v>
       </c>
       <c r="CM238" t="n">
         <v>1.9555555555555555</v>
@@ -88665,7 +88665,7 @@
         <v>0.7946428571428571</v>
       </c>
       <c r="AD239" t="n">
-        <v>0.6916902380795464</v>
+        <v>0.6916902380795465</v>
       </c>
       <c r="AE239" t="n">
         <v>2.0555555555555554</v>
@@ -88845,7 +88845,7 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="CL239" t="n">
-        <v>0.5506069555622013</v>
+        <v>0.5506069555622009</v>
       </c>
       <c r="CM239" t="n">
         <v>2.1666666666666665</v>
@@ -89000,7 +89000,7 @@
         <v>0.7678571428571429</v>
       </c>
       <c r="AD240" t="n">
-        <v>0.6940481772627651</v>
+        <v>0.6940481772627649</v>
       </c>
       <c r="AE240" t="n">
         <v>2.2222222222222223</v>
@@ -89335,7 +89335,7 @@
         <v>0.6138392857142857</v>
       </c>
       <c r="AD241" t="n">
-        <v>0.6501086619108362</v>
+        <v>0.6501086619108364</v>
       </c>
       <c r="AE241" t="n">
         <v>2.0555555555555554</v>
@@ -89515,7 +89515,7 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="CL241" t="n">
-        <v>0.6592658320000322</v>
+        <v>0.6592658320000325</v>
       </c>
       <c r="CM241" t="n">
         <v>2.5</v>
@@ -89670,7 +89670,7 @@
         <v>1.0</v>
       </c>
       <c r="AD242" t="n">
-        <v>0.7387961250362586</v>
+        <v>0.7387961250362588</v>
       </c>
       <c r="AE242" t="n">
         <v>1.7777777777777777</v>
@@ -90005,7 +90005,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="AD243" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7142857142857141</v>
       </c>
       <c r="AE243" t="n">
         <v>1.75</v>
@@ -90185,7 +90185,7 @@
         <v>1.0</v>
       </c>
       <c r="CL243" t="n">
-        <v>0.7387961250362588</v>
+        <v>0.7387961250362585</v>
       </c>
       <c r="CM243" t="n">
         <v>1.7777777777777777</v>
